--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcasas1972@gmail.com</t>
+    <t xml:space="preserve">Maitena Nontue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDERETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariano_c20031@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Sofia Angelica</t>
@@ -49,6 +52,18 @@
     <t xml:space="preserve">alegresofiaangelica@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melody Berenice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMARADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mabyvega74@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabrizio Daniel</t>
   </si>
   <si>
@@ -67,6 +82,15 @@
     <t xml:space="preserve">lidiamax861@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Emilio Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anamabel4020@yahoo.com.ar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiziano</t>
   </si>
   <si>
@@ -85,6 +109,33 @@
     <t xml:space="preserve">alejodicerbo@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Tobías Baltazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNÁNDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nataliafsalguero@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalo Agustín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILGON71@YAHOO.COM.AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Ezequiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutiérrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dylangutierrez032@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximo Iván</t>
   </si>
   <si>
@@ -94,6 +145,42 @@
     <t xml:space="preserve">maximolinares444@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Victoria Antonella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACIEL RUIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vickymaciel2501@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martinezbrisa2019@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facundo Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martorelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalia.martorelli1984@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bautistamedina466@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Victoria Soledad</t>
   </si>
   <si>
@@ -103,6 +190,15 @@
     <t xml:space="preserve">miguez.madrid.victoria@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Matias Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matute0201@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Nicolas</t>
   </si>
   <si>
@@ -112,6 +208,24 @@
     <t xml:space="preserve">ranlozo340@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Kevin Ezequiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ DE ROSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevinperezderosas5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÍOS PETRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucasrios1984@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santiago Nahuel</t>
   </si>
   <si>
@@ -121,96 +235,6 @@
     <t xml:space="preserve">vanina.dolores.aguilar@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Valentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÍOS PETRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lucasrios1984@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melody Berenice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALMARADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mabyvega74@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilio Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anamabel4020@yahoo.com.ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobías Baltazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNÁNDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nataliafsalguero@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dylan Ezequiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dylangutierrez032@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denise Tamara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERNANDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denisetamarahernandez@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria Antonella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACIEL RUIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vickymaciel2501@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristian Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martinezbrisa2019@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matias Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matute0201@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Ezequiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ DE ROSAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kevinperezderosas5@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leon Agustin</t>
   </si>
   <si>
@@ -218,50 +242,15 @@
   </si>
   <si>
     <t xml:space="preserve">leonavilche@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maitena Nontue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDERETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mariano_c20031@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalo Agustín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOMEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILGON71@YAHOO.COM.AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facundo Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martorelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natalia.martorelli1984@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Bautista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bautistamedina466@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -329,12 +318,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,6 +340,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -355,13 +365,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -378,6 +388,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>45784</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -389,269 +402,322 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
+      <c r="D25" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D24,"p")</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -8,7 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="notas" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="1-codigos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2-alg.boole" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="3-compu" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="4-salidas" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="4-Recup" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="positivos" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="274">
+  <si>
+    <t xml:space="preserve">nro</t>
+  </si>
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -242,15 +252,613 @@
   </si>
   <si>
     <t xml:space="preserve">leonavilche@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-codigos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-alg boole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-compu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-salida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 + positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo requerido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/10,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  20:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 de marzo de 2025  10:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  12:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  15:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 días 4 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 de marzo de 2025  14:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  09:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 días 15 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  23:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 días 5 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  00:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  16:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  15:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 días 21 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  12:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 27 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  17:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  16:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  20:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  17:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  16:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  16:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  23:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 de abril de 2025  10:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  00:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 minutos 44 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  19:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  00:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  13:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  12:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 13 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 días 23 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 de marzo de 2025  17:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  12:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 días 13 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 de abril de 2025  00:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 días 7 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 días 12 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  23:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  21:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  21:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 de abril de 2025  16:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  01:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  21:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 días 8 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  18:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 de abril de 2025  16:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 de abril de 2025  14:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  20:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 de abril de 2025  21:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/8,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  23:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 52 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  16:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 de abril de 2025  23:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 de abril de 2025  23:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  13:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  13:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  12:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  17:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  20:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  21:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 15 segundos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -276,12 +884,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,7 +932,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,6 +945,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,23 +966,83 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,21 +1051,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -388,13 +1075,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>45784</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="F1" s="2" t="n">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -402,13 +1095,19 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -416,13 +1115,19 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -430,13 +1135,19 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -444,13 +1155,19 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -458,13 +1175,19 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -472,13 +1195,19 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -486,13 +1215,19 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -500,13 +1235,19 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -514,13 +1255,19 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -528,13 +1275,19 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -542,13 +1295,19 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -556,13 +1315,19 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -570,13 +1335,19 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>45</v>
@@ -584,13 +1355,19 @@
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>48</v>
@@ -598,13 +1375,19 @@
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -612,13 +1395,19 @@
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>54</v>
@@ -626,13 +1415,19 @@
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -640,13 +1435,19 @@
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
@@ -654,13 +1455,19 @@
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -668,13 +1475,19 @@
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
@@ -682,13 +1495,19 @@
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>69</v>
@@ -696,13 +1515,19 @@
       <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>72</v>
@@ -710,13 +1535,23 @@
       <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
-        <f aca="false">COUNTIF(D2:D24,"p")</f>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E24,"p")</f>
+        <v>21</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F24,"p")</f>
         <v>21</v>
       </c>
     </row>
@@ -729,4 +1564,3977 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="1" sqref="F25 M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">F2+H2/2</f>
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C2:E2,I2),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f aca="false">IF(J2&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">F3+H3/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C3:E3,I3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f aca="false">IF(J3&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">F4+H4/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C4:E4,I4),0)</f>
+        <v>10</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f aca="false">IF(J4&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">F5+H5/2</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C5:E5,I5),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f aca="false">IF(J5&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">F6+H6/2</f>
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C6:E6,I6),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f aca="false">IF(J6&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">F7+H7/2</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C7:E7,I7),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f aca="false">IF(J7&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">F8+H8/2</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C8:E8,I8),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f aca="false">IF(J8&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">F9+H9/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C9:E9,I9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f aca="false">IF(J9&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">F10+H10/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C10:E10,I10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f aca="false">IF(J10&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">F11+H11/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C11:E11,I11),0)</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f aca="false">IF(J11&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">F12+H12/2</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C12:E12,I12),0)</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f aca="false">IF(J12&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">F13+H13/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C13:E13,I13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f aca="false">IF(J13&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">F14+H14/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C14:E14,I14),0)</f>
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f aca="false">IF(J14&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">F15+H15/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C15:E15,I15),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f aca="false">IF(J15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">F16+H16/2</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C16:E16,I16),0)</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f aca="false">IF(J16&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">F17+H17/2</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C17:E17,I17),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f aca="false">IF(J17&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">F18+H18/2</f>
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C18:E18,I18),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f aca="false">IF(J18&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">F19+H19/2</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C19:E19,I19),0)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f aca="false">IF(J19&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">F20+H20/2</f>
+        <v>9</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C20:E20,I20),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f aca="false">IF(J20&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">F21+H21/2</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C21:E21,I21),0)</f>
+        <v>8</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f aca="false">IF(J21&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">F22+H22/2</f>
+        <v>7</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C22:E22,I22),0)</f>
+        <v>7</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f aca="false">IF(J22&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">F23+H23/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C23:E23,I23),0)</f>
+        <v>10</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f aca="false">IF(J23&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">F24+H24/2</f>
+        <v>6</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C24:E24,I24),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f aca="false">IF(J24&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J24">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K24">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="F25 G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">AVERAGE(F20:F22)</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">ROUND(MAX(H20,G20),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F25 F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="F25 G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">AVERAGE(F14:F16)</f>
+        <v>9.66666666666667</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">ROUND(MAX(H14,G14),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="F25 G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F4)</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">ROUND(MAX(H3,G3),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="1" sqref="F25 G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D5)</f>
+        <v>6.75</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">ROUND(MAX(F2,E2),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">AVERAGE(D6:D13)</f>
+        <v>6.25</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">ROUND(MAX(F6,E6),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">AVERAGE(D14:D15)</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">ROUND(MAX(F14,E14),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">AVERAGE(D16:D17)</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">ROUND(MAX(F16,E16),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">AVERAGE(D18:D20)</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">ROUND(MAX(F18,E18),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F25 F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">SUM(C2:E2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">SUM(C3:E3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">SUM(C4:E4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">SUM(C5:E5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">SUM(C6:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">SUM(C7:E7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">SUM(C8:E8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">SUM(C9:E9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">SUM(C10:E10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">SUM(C11:E11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">SUM(C12:E12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">SUM(C13:E13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">SUM(C14:E14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">SUM(C15:E15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">SUM(C16:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">SUM(C17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">SUM(C18:E18)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">SUM(C19:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(C20:E20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(C21:E21)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">SUM(C22:E22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(C23:E23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">SUM(C24:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="274">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -932,7 +932,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -942,10 +942,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,16 +1047,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
   </cols>
@@ -1084,6 +1080,9 @@
       <c r="F1" s="2" t="n">
         <v>45791</v>
       </c>
+      <c r="G1" s="2" t="n">
+        <v>45793</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1102,6 +1101,9 @@
         <v>7</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1124,6 +1126,9 @@
       <c r="F3" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1144,6 +1149,9 @@
       <c r="F4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1164,6 +1172,9 @@
       <c r="F5" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1184,6 +1195,9 @@
       <c r="F6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1204,6 +1218,9 @@
       <c r="F7" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G7" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1224,6 +1241,9 @@
       <c r="F8" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1244,6 +1264,9 @@
       <c r="F9" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1264,6 +1287,9 @@
       <c r="F10" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1284,6 +1310,9 @@
       <c r="F11" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1303,6 +1332,9 @@
       </c>
       <c r="F12" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,6 +1356,9 @@
       <c r="F13" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1344,6 +1379,9 @@
       <c r="F14" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1364,6 +1402,9 @@
       <c r="F15" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1384,6 +1425,9 @@
       <c r="F16" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G16" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1404,6 +1448,9 @@
       <c r="F17" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G17" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1424,6 +1471,9 @@
       <c r="F18" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G18" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1444,6 +1494,9 @@
       <c r="F19" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G19" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1464,6 +1517,9 @@
       <c r="F20" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1484,6 +1540,9 @@
       <c r="F21" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G21" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1504,6 +1563,9 @@
       <c r="F22" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G22" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1524,6 +1586,9 @@
       <c r="F23" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="G23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1542,6 +1607,9 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1553,6 +1621,10 @@
       <c r="F25" s="0" t="n">
         <f aca="false">COUNTIF(F2:F24,"p")</f>
         <v>21</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G24,"p")</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1646,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="1" sqref="F25 M18"/>
+      <selection pane="topLeft" activeCell="M18" activeCellId="1" sqref="G25 M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -1648,7 +1720,7 @@
         <f aca="false">ROUND(AVERAGE(C2:E2,I2),0)</f>
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" s="3" t="str">
         <f aca="false">IF(J2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1669,7 +1741,7 @@
       <c r="E3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="n">
@@ -1686,7 +1758,7 @@
         <f aca="false">ROUND(AVERAGE(C3:E3,I3),0)</f>
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="3" t="str">
         <f aca="false">IF(J3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1721,7 +1793,7 @@
         <f aca="false">ROUND(AVERAGE(C4:E4,I4),0)</f>
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="K4" s="3" t="str">
         <f aca="false">IF(J4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1756,7 +1828,7 @@
         <f aca="false">ROUND(AVERAGE(C5:E5,I5),0)</f>
         <v>8</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="K5" s="3" t="str">
         <f aca="false">IF(J5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1777,7 +1849,7 @@
       <c r="E6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -1794,7 +1866,7 @@
         <f aca="false">ROUND(AVERAGE(C6:E6,I6),0)</f>
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" s="3" t="str">
         <f aca="false">IF(J6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1815,7 +1887,7 @@
       <c r="E7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="n">
@@ -1832,7 +1904,7 @@
         <f aca="false">ROUND(AVERAGE(C7:E7,I7),0)</f>
         <v>9</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="3" t="str">
         <f aca="false">IF(J7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1867,7 +1939,7 @@
         <f aca="false">ROUND(AVERAGE(C8:E8,I8),0)</f>
         <v>8</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="3" t="str">
         <f aca="false">IF(J8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1902,7 +1974,7 @@
         <f aca="false">ROUND(AVERAGE(C9:E9,I9),0)</f>
         <v>10</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" s="3" t="str">
         <f aca="false">IF(J9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1937,7 +2009,7 @@
         <f aca="false">ROUND(AVERAGE(C10:E10,I10),0)</f>
         <v>9</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" s="3" t="str">
         <f aca="false">IF(J10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1972,7 +2044,7 @@
         <f aca="false">ROUND(AVERAGE(C11:E11,I11),0)</f>
         <v>4</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="K11" s="3" t="str">
         <f aca="false">IF(J11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2007,7 +2079,7 @@
         <f aca="false">ROUND(AVERAGE(C12:E12,I12),0)</f>
         <v>10</v>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="K12" s="3" t="str">
         <f aca="false">IF(J12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2028,7 +2100,7 @@
       <c r="E13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
@@ -2045,7 +2117,7 @@
         <f aca="false">ROUND(AVERAGE(C13:E13,I13),0)</f>
         <v>8</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="K13" s="3" t="str">
         <f aca="false">IF(J13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2080,7 +2152,7 @@
         <f aca="false">ROUND(AVERAGE(C14:E14,I14),0)</f>
         <v>10</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="K14" s="3" t="str">
         <f aca="false">IF(J14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2101,7 +2173,7 @@
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
@@ -2118,7 +2190,7 @@
         <f aca="false">ROUND(AVERAGE(C15:E15,I15),0)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="K15" s="3" t="str">
         <f aca="false">IF(J15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2153,7 +2225,7 @@
         <f aca="false">ROUND(AVERAGE(C16:E16,I16),0)</f>
         <v>6</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="K16" s="3" t="str">
         <f aca="false">IF(J16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2188,7 +2260,7 @@
         <f aca="false">ROUND(AVERAGE(C17:E17,I17),0)</f>
         <v>8</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="K17" s="3" t="str">
         <f aca="false">IF(J17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2209,7 +2281,7 @@
       <c r="E18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -2226,7 +2298,7 @@
         <f aca="false">ROUND(AVERAGE(C18:E18,I18),0)</f>
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="K18" s="3" t="str">
         <f aca="false">IF(J18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2261,7 +2333,7 @@
         <f aca="false">ROUND(AVERAGE(C19:E19,I19),0)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="K19" s="3" t="str">
         <f aca="false">IF(J19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2282,7 +2354,7 @@
       <c r="E20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="4" t="n">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
@@ -2299,7 +2371,7 @@
         <f aca="false">ROUND(AVERAGE(C20:E20,I20),0)</f>
         <v>8</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="K20" s="3" t="str">
         <f aca="false">IF(J20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2334,7 +2406,7 @@
         <f aca="false">ROUND(AVERAGE(C21:E21,I21),0)</f>
         <v>8</v>
       </c>
-      <c r="K21" s="4" t="str">
+      <c r="K21" s="3" t="str">
         <f aca="false">IF(J21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2355,7 +2427,7 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="n">
@@ -2372,7 +2444,7 @@
         <f aca="false">ROUND(AVERAGE(C22:E22,I22),0)</f>
         <v>7</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="K22" s="3" t="str">
         <f aca="false">IF(J22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2407,7 +2479,7 @@
         <f aca="false">ROUND(AVERAGE(C23:E23,I23),0)</f>
         <v>10</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="K23" s="3" t="str">
         <f aca="false">IF(J23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2442,7 +2514,7 @@
         <f aca="false">ROUND(AVERAGE(C24:E24,I24),0)</f>
         <v>9</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="K24" s="3" t="str">
         <f aca="false">IF(J24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2476,10 +2548,10 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="F25 G20"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="G25 G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -3095,10 +3167,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F25 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="G25 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -3599,10 +3671,10 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="F25 G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="G25 G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -4223,10 +4295,10 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="F25 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="G25 G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -4730,10 +4802,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="1" sqref="F25 G23"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="1" sqref="G25 G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -5154,10 +5226,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F25 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="G25 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="285">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -41,6 +41,27 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maitena Nontue</t>
   </si>
   <si>
@@ -53,6 +74,9 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sofia Angelica</t>
   </si>
   <si>
@@ -62,9 +86,6 @@
     <t xml:space="preserve">alegresofiaangelica@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Melody Berenice</t>
   </si>
   <si>
@@ -119,6 +140,12 @@
     <t xml:space="preserve">alejodicerbo@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olimpiadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tobías Baltazar</t>
   </si>
   <si>
@@ -227,6 +254,9 @@
     <t xml:space="preserve">kevinperezderosas5@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valentin</t>
   </si>
   <si>
@@ -252,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">leonavilche@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ausentes</t>
   </si>
   <si>
     <t xml:space="preserve">1-codigos</t>
@@ -855,18 +888,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -881,6 +914,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -898,12 +938,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -932,7 +979,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -942,6 +989,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,7 +1025,6 @@
     <dxf>
       <font>
         <name val="Calibri"/>
-        <charset val="1"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -1047,18 +1105,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X45" activeCellId="0" sqref="X45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,28 +1142,145 @@
       <c r="G1" s="2" t="n">
         <v>45793</v>
       </c>
+      <c r="H1" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <f aca="false">COUNTIF(E2:T2,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <f aca="false">COUNTIF(E2:T2,"P")</f>
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
+      <c r="W2" s="3" t="n">
+        <f aca="false">COUNTIF(E2:T2,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <f aca="false">COUNTIF(E2:T2,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <f aca="false">U2+V2+W2/2+X2/4</f>
+        <v>4</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <f aca="false">ROUND(Y2*10/$AA$1,0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,22 +1288,79 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <f aca="false">COUNTIF(E3:T3,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <f aca="false">COUNTIF(E3:T3,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <f aca="false">COUNTIF(E3:T3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <f aca="false">COUNTIF(E3:T3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <f aca="false">U3+V3+W3/2+X3/4</f>
+        <v>13</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <f aca="false">ROUND(Y3*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,22 +1368,79 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <f aca="false">COUNTIF(E4:T4,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <f aca="false">COUNTIF(E4:T4,"P")</f>
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
+      <c r="W4" s="3" t="n">
+        <f aca="false">COUNTIF(E4:T4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <f aca="false">COUNTIF(E4:T4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <f aca="false">U4+V4+W4/2+X4/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <f aca="false">ROUND(Y4*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,22 +1448,79 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <f aca="false">COUNTIF(E5:T5,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <f aca="false">COUNTIF(E5:T5,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <f aca="false">COUNTIF(E5:T5,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <f aca="false">COUNTIF(E5:T5,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <f aca="false">U5+V5+W5/2+X5/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <f aca="false">ROUND(Y5*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,22 +1528,79 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <f aca="false">COUNTIF(E6:T6,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <f aca="false">COUNTIF(E6:T6,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <f aca="false">COUNTIF(E6:T6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <f aca="false">COUNTIF(E6:T6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <f aca="false">U6+V6+W6/2+X6/4</f>
+        <v>13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <f aca="false">ROUND(Y6*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,22 +1608,79 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <f aca="false">COUNTIF(E7:T7,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <f aca="false">COUNTIF(E7:T7,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <f aca="false">COUNTIF(E7:T7,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <f aca="false">COUNTIF(E7:T7,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <f aca="false">U7+V7+W7/2+X7/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <f aca="false">ROUND(Y7*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,22 +1688,79 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <f aca="false">COUNTIF(E8:T8,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <f aca="false">COUNTIF(E8:T8,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <f aca="false">COUNTIF(E8:T8,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <f aca="false">COUNTIF(E8:T8,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <f aca="false">U8+V8+W8/2+X8/4</f>
+        <v>14</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <f aca="false">ROUND(Y8*10/$AA$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,22 +1768,82 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <f aca="false">COUNTIF(E9:T9,"C")</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <f aca="false">COUNTIF(E9:T9,"P")</f>
         <v>11</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>11</v>
+      <c r="W9" s="3" t="n">
+        <f aca="false">COUNTIF(E9:T9,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <f aca="false">COUNTIF(E9:T9,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <f aca="false">U9+V9+W9/2+X9/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <f aca="false">ROUND(Y9*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,21 +1851,78 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <f aca="false">COUNTIF(E10:T10,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <f aca="false">COUNTIF(E10:T10,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <f aca="false">COUNTIF(E10:T10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <f aca="false">COUNTIF(E10:T10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <f aca="false">U10+V10+W10/2+X10/4</f>
+        <v>10</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <f aca="false">ROUND(Y10*10/$AA$1,0)</f>
         <v>7</v>
       </c>
     </row>
@@ -1296,21 +1931,78 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <f aca="false">COUNTIF(E11:T11,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <f aca="false">COUNTIF(E11:T11,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <f aca="false">COUNTIF(E11:T11,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <f aca="false">COUNTIF(E11:T11,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <f aca="false">U11+V11+W11/2+X11/4</f>
+        <v>10</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <f aca="false">ROUND(Y11*10/$AA$1,0)</f>
         <v>7</v>
       </c>
     </row>
@@ -1319,21 +2011,78 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <f aca="false">COUNTIF(E12:T12,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <f aca="false">COUNTIF(E12:T12,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <f aca="false">COUNTIF(E12:T12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <f aca="false">COUNTIF(E12:T12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <f aca="false">U12+V12+W12/2+X12/4</f>
+        <v>10</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <f aca="false">ROUND(Y12*10/$AA$1,0)</f>
         <v>7</v>
       </c>
     </row>
@@ -1342,22 +2091,79 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <f aca="false">COUNTIF(E13:T13,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <f aca="false">COUNTIF(E13:T13,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <f aca="false">COUNTIF(E13:T13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <f aca="false">COUNTIF(E13:T13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3" t="n">
+        <f aca="false">U13+V13+W13/2+X13/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <f aca="false">ROUND(Y13*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,22 +2171,79 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <f aca="false">COUNTIF(E14:T14,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <f aca="false">COUNTIF(E14:T14,"P")</f>
         <v>11</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="W14" s="3" t="n">
+        <f aca="false">COUNTIF(E14:T14,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <f aca="false">COUNTIF(E14:T14,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <f aca="false">U14+V14+W14/2+X14/4</f>
         <v>11</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>7</v>
+      <c r="Z14" s="4" t="n">
+        <f aca="false">ROUND(Y14*10/$AA$1,0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,22 +2251,79 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <f aca="false">COUNTIF(E15:T15,"C")</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="3" t="n">
+        <f aca="false">COUNTIF(E15:T15,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <f aca="false">COUNTIF(E15:T15,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <f aca="false">COUNTIF(E15:T15,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <f aca="false">U15+V15+W15/2+X15/4</f>
+        <v>13</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <f aca="false">ROUND(Y15*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,22 +2331,79 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <f aca="false">COUNTIF(E16:T16,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <f aca="false">COUNTIF(E16:T16,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <f aca="false">COUNTIF(E16:T16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <f aca="false">COUNTIF(E16:T16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <f aca="false">U16+V16+W16/2+X16/4</f>
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <f aca="false">ROUND(Y16*10/$AA$1,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,22 +2411,79 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <f aca="false">COUNTIF(E17:T17,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <f aca="false">COUNTIF(E17:T17,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <f aca="false">COUNTIF(E17:T17,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <f aca="false">COUNTIF(E17:T17,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <f aca="false">U17+V17+W17/2+X17/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <f aca="false">ROUND(Y17*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,21 +2491,78 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <f aca="false">COUNTIF(E18:T18,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <f aca="false">COUNTIF(E18:T18,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <f aca="false">COUNTIF(E18:T18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <f aca="false">COUNTIF(E18:T18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <f aca="false">U18+V18+W18/2+X18/4</f>
+        <v>10</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <f aca="false">ROUND(Y18*10/$AA$1,0)</f>
         <v>7</v>
       </c>
     </row>
@@ -1480,22 +2571,79 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <f aca="false">COUNTIF(E19:T19,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <f aca="false">COUNTIF(E19:T19,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <f aca="false">COUNTIF(E19:T19,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <f aca="false">COUNTIF(E19:T19,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <f aca="false">U19+V19+W19/2+X19/4</f>
+        <v>12</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <f aca="false">ROUND(Y19*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,21 +2651,78 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="3" t="n">
+        <f aca="false">COUNTIF(E20:T20,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="n">
+        <f aca="false">COUNTIF(E20:T20,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <f aca="false">COUNTIF(E20:T20,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <f aca="false">COUNTIF(E20:T20,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <f aca="false">U20+V20+W20/2+X20/4</f>
+        <v>10</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <f aca="false">ROUND(Y20*10/$AA$1,0)</f>
         <v>7</v>
       </c>
     </row>
@@ -1526,22 +2731,82 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.545833333333333</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <f aca="false">COUNTIF(E21:T21,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <f aca="false">COUNTIF(E21:T21,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <f aca="false">COUNTIF(E21:T21,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <f aca="false">COUNTIF(E21:T21,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <f aca="false">U21+V21+W21/2+X21/4</f>
+        <v>12.75</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <f aca="false">ROUND(Y21*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,22 +2814,79 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <f aca="false">COUNTIF(E22:T22,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="n">
+        <f aca="false">COUNTIF(E22:T22,"P")</f>
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="W22" s="3" t="n">
+        <f aca="false">COUNTIF(E22:T22,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <f aca="false">COUNTIF(E22:T22,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="n">
+        <f aca="false">U22+V22+W22/2+X22/4</f>
         <v>11</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>7</v>
+      <c r="Z22" s="4" t="n">
+        <f aca="false">ROUND(Y22*10/$AA$1,0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,22 +2894,79 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <f aca="false">COUNTIF(E23:T23,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="n">
+        <f aca="false">COUNTIF(E23:T23,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <f aca="false">COUNTIF(E23:T23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <f aca="false">COUNTIF(E23:T23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="n">
+        <f aca="false">U23+V23+W23/2+X23/4</f>
+        <v>8</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <f aca="false">ROUND(Y23*10/$AA$1,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,25 +2974,85 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U24" s="3" t="n">
+        <f aca="false">COUNTIF(E24:T24,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="n">
+        <f aca="false">COUNTIF(E24:T24,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="W24" s="3" t="n">
+        <f aca="false">COUNTIF(E24:T24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <f aca="false">COUNTIF(E24:T24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="n">
+        <f aca="false">U24+V24+W24/2+X24/4</f>
+        <v>13</v>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <f aca="false">ROUND(Y24*10/$AA$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="0" t="n">
         <f aca="false">COUNTIF(E2:E24,"p")</f>
         <v>21</v>
@@ -1625,6 +3064,63 @@
       <c r="G25" s="0" t="n">
         <f aca="false">COUNTIF(G2:G24,"p")</f>
         <v>11</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H24,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J24,"p")</f>
+        <v>21</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K24,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L24,"p")</f>
+        <v>10</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">COUNTIF(M2:M24,"p")</f>
+        <v>16</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">COUNTIF(N2:N24,"p")</f>
+        <v>18</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">COUNTIF(P2:P24,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">COUNTIF(Q2:Q24,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">COUNTIF(R2:R24,"p")</f>
+        <v>12</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">COUNTIF(S2:S24,"p")</f>
+        <v>22</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">COUNTIF(T2:T24,"p")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H24,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J24,"A")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1645,14 +3141,15 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="1" sqref="G25 M18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="9.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,39 +3160,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>9</v>
@@ -1716,21 +3213,21 @@
         <f aca="false">F2+H2/2</f>
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C2:E2,I2),0)</f>
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="6" t="str">
         <f aca="false">IF(J2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8</v>
@@ -1741,7 +3238,7 @@
       <c r="E3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="n">
@@ -1754,21 +3251,21 @@
         <f aca="false">F3+H3/2</f>
         <v>7.5</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C3:E3,I3),0)</f>
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="6" t="str">
         <f aca="false">IF(J3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -1789,21 +3286,21 @@
         <f aca="false">F4+H4/2</f>
         <v>11.5</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C4:E4,I4),0)</f>
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="6" t="str">
         <f aca="false">IF(J4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -1824,21 +3321,21 @@
         <f aca="false">F5+H5/2</f>
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C5:E5,I5),0)</f>
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="6" t="str">
         <f aca="false">IF(J5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -1849,7 +3346,7 @@
       <c r="E6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -1862,21 +3359,21 @@
         <f aca="false">F6+H6/2</f>
         <v>7</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C6:E6,I6),0)</f>
         <v>9</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" s="6" t="str">
         <f aca="false">IF(J6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -1887,7 +3384,7 @@
       <c r="E7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="n">
@@ -1900,21 +3397,21 @@
         <f aca="false">F7+H7/2</f>
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C7:E7,I7),0)</f>
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="6" t="str">
         <f aca="false">IF(J7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -1935,21 +3432,21 @@
         <f aca="false">F8+H8/2</f>
         <v>2</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C8:E8,I8),0)</f>
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="6" t="str">
         <f aca="false">IF(J8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -1970,21 +3467,21 @@
         <f aca="false">F9+H9/2</f>
         <v>10.5</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C9:E9,I9),0)</f>
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="6" t="str">
         <f aca="false">IF(J9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -2005,21 +3502,21 @@
         <f aca="false">F10+H10/2</f>
         <v>7.5</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C10:E10,I10),0)</f>
         <v>9</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="6" t="str">
         <f aca="false">IF(J10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2040,21 +3537,21 @@
         <f aca="false">F11+H11/2</f>
         <v>2.5</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C11:E11,I11),0)</f>
         <v>4</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="6" t="str">
         <f aca="false">IF(J11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -2075,21 +3572,21 @@
         <f aca="false">F12+H12/2</f>
         <v>10</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C12:E12,I12),0)</f>
         <v>10</v>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="K12" s="6" t="str">
         <f aca="false">IF(J12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -2100,7 +3597,7 @@
       <c r="E13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
@@ -2113,21 +3610,21 @@
         <f aca="false">F13+H13/2</f>
         <v>6.5</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C13:E13,I13),0)</f>
         <v>8</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="6" t="str">
         <f aca="false">IF(J13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -2148,21 +3645,21 @@
         <f aca="false">F14+H14/2</f>
         <v>11.5</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C14:E14,I14),0)</f>
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="K14" s="6" t="str">
         <f aca="false">IF(J14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -2173,7 +3670,7 @@
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
@@ -2186,21 +3683,21 @@
         <f aca="false">F15+H15/2</f>
         <v>7.5</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C15:E15,I15),0)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="3" t="str">
+      <c r="K15" s="6" t="str">
         <f aca="false">IF(J15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -2221,21 +3718,21 @@
         <f aca="false">F16+H16/2</f>
         <v>1</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C16:E16,I16),0)</f>
         <v>6</v>
       </c>
-      <c r="K16" s="3" t="str">
+      <c r="K16" s="6" t="str">
         <f aca="false">IF(J16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -2256,21 +3753,21 @@
         <f aca="false">F17+H17/2</f>
         <v>1</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C17:E17,I17),0)</f>
         <v>8</v>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="K17" s="6" t="str">
         <f aca="false">IF(J17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -2281,7 +3778,7 @@
       <c r="E18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -2294,21 +3791,21 @@
         <f aca="false">F18+H18/2</f>
         <v>9</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C18:E18,I18),0)</f>
         <v>9</v>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="K18" s="6" t="str">
         <f aca="false">IF(J18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -2329,21 +3826,21 @@
         <f aca="false">F19+H19/2</f>
         <v>10</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C19:E19,I19),0)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="K19" s="6" t="str">
         <f aca="false">IF(J19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7</v>
@@ -2354,7 +3851,7 @@
       <c r="E20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
@@ -2367,21 +3864,21 @@
         <f aca="false">F20+H20/2</f>
         <v>9</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C20:E20,I20),0)</f>
         <v>8</v>
       </c>
-      <c r="K20" s="3" t="str">
+      <c r="K20" s="6" t="str">
         <f aca="false">IF(J20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -2402,21 +3899,21 @@
         <f aca="false">F21+H21/2</f>
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C21:E21,I21),0)</f>
         <v>8</v>
       </c>
-      <c r="K21" s="3" t="str">
+      <c r="K21" s="6" t="str">
         <f aca="false">IF(J21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10</v>
@@ -2427,7 +3924,7 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="7" t="n">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="n">
@@ -2440,21 +3937,21 @@
         <f aca="false">F22+H22/2</f>
         <v>7</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="J22" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C22:E22,I22),0)</f>
         <v>7</v>
       </c>
-      <c r="K22" s="3" t="str">
+      <c r="K22" s="6" t="str">
         <f aca="false">IF(J22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -2475,21 +3972,21 @@
         <f aca="false">F23+H23/2</f>
         <v>11.5</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C23:E23,I23),0)</f>
         <v>10</v>
       </c>
-      <c r="K23" s="3" t="str">
+      <c r="K23" s="6" t="str">
         <f aca="false">IF(J23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10</v>
@@ -2510,11 +4007,11 @@
         <f aca="false">F24+H24/2</f>
         <v>6</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C24:E24,I24),0)</f>
         <v>9</v>
       </c>
-      <c r="K24" s="3" t="str">
+      <c r="K24" s="6" t="str">
         <f aca="false">IF(J24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2545,13 +4042,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="G25 G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -2564,22 +4061,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,16 +4084,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -2610,16 +4107,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -2633,16 +4130,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -2656,16 +4153,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -2679,16 +4176,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -2702,16 +4199,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -2725,16 +4222,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -2748,16 +4245,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -2771,16 +4268,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -2794,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -2808,16 +4305,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -2831,16 +4328,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -2854,16 +4351,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -2877,16 +4374,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -2900,16 +4397,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -2923,16 +4420,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -2946,16 +4443,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -2969,16 +4466,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -2992,16 +4489,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3020,13 +4517,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3034,13 +4531,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -3051,16 +4548,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -3074,16 +4571,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3097,16 +4594,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -3120,16 +4617,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -3138,16 +4635,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3166,11 +4653,11 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="G25 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -3183,13 +4670,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,16 +4684,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -3217,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -3237,16 +4724,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3257,16 +4744,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -3277,16 +4764,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -3297,16 +4784,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3317,16 +4804,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3337,16 +4824,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3357,16 +4844,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3377,16 +4864,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -3397,16 +4884,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -3417,16 +4904,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3437,16 +4924,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -3457,16 +4944,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3477,16 +4964,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -3497,16 +4984,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -3517,16 +5004,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -3537,16 +5024,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -3557,16 +5044,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -3577,16 +5064,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3597,16 +5084,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -3617,16 +5104,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -3637,16 +5124,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -3668,13 +5155,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="G25 G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -3688,22 +5175,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,16 +5198,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -3734,16 +5221,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -3757,16 +5244,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3780,16 +5267,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -3803,16 +5290,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -3826,16 +5313,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3849,16 +5336,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -3872,16 +5359,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -3895,16 +5382,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3918,7 +5405,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3932,16 +5419,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3955,16 +5442,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -3978,16 +5465,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -4006,13 +5493,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4020,13 +5507,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -4037,16 +5524,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -4060,16 +5547,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -4083,16 +5570,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -4106,16 +5593,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -4129,16 +5616,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -4152,16 +5639,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -4175,16 +5662,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -4198,16 +5685,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -4221,16 +5708,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4244,16 +5731,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -4264,18 +5751,9 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4292,13 +5770,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="G25 G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -4312,22 +5790,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,16 +5813,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -4358,16 +5836,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -4386,13 +5864,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -4403,16 +5881,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4426,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4440,7 +5918,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4454,7 +5932,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -4468,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4482,16 +5960,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4505,16 +5983,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -4528,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -4542,16 +6020,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4565,7 +6043,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -4579,16 +6057,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4602,7 +6080,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4616,7 +6094,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4630,7 +6108,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -4644,7 +6122,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -4658,16 +6136,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -4681,7 +6159,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4695,7 +6173,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -4709,7 +6187,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -4723,16 +6201,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4746,16 +6224,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -4764,25 +6242,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4801,11 +6260,11 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="1" sqref="G25 G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -4817,33 +6276,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -4862,13 +6321,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -4876,13 +6335,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -4890,13 +6349,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4904,13 +6363,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8</v>
@@ -4929,13 +6388,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -4943,13 +6402,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -4957,13 +6416,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -4971,13 +6430,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -4985,13 +6444,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -4999,13 +6458,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -5013,13 +6472,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3</v>
@@ -5027,13 +6486,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -5052,13 +6511,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -5066,13 +6525,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -5091,13 +6550,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
@@ -5105,13 +6564,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
@@ -5130,13 +6589,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -5144,13 +6603,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -5158,13 +6617,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>7</v>
@@ -5175,13 +6634,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>8</v>
@@ -5192,13 +6651,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>6</v>
@@ -5225,11 +6684,11 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="G25 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -5252,7 +6711,7 @@
         <v>45751</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
@@ -5278,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -5293,7 +6752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -5308,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(C5:E5)</f>
@@ -5320,7 +6779,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">SUM(C6:E6)</f>
@@ -5332,7 +6791,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -5347,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -5362,7 +6821,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -5377,7 +6836,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -5395,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -5410,7 +6869,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -5425,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -5440,7 +6899,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -5455,7 +6914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -5470,7 +6929,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(C16:E16)</f>
@@ -5482,7 +6941,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(C17:E17)</f>
@@ -5494,7 +6953,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -5512,7 +6971,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">SUM(C19:E19)</f>
@@ -5524,7 +6983,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -5542,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -5560,7 +7019,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -5578,7 +7037,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -5593,7 +7052,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(C24:E24)</f>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="4-salidas" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="4-Recup" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="positivos" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Evaluacion" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="310">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -155,6 +156,9 @@
     <t xml:space="preserve">nataliafsalguero@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gonzalo Agustín</t>
   </si>
   <si>
@@ -314,6 +318,12 @@
     <t xml:space="preserve">Valoracion</t>
   </si>
   <si>
+    <t xml:space="preserve">Evaluacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -882,6 +892,72 @@
   </si>
   <si>
     <t xml:space="preserve">4 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 minutos 13 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 minutos 3 segundos</t>
   </si>
 </sst>
 </file>
@@ -900,6 +976,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -922,6 +999,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -979,7 +1057,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1008,6 +1086,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1021,10 +1107,11 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -1033,6 +1120,35 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1048,7 +1164,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1105,18 +1221,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X45" activeCellId="0" sqref="X45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC21" activeCellId="0" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.52"/>
   </cols>
   <sheetData>
@@ -1202,6 +1318,9 @@
       <c r="AA1" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AB1" s="2" t="n">
+        <v>45854</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1282,6 +1401,9 @@
         <f aca="false">ROUND(Y2*10/$AA$1,0)</f>
         <v>3</v>
       </c>
+      <c r="AB2" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1362,6 +1484,9 @@
         <f aca="false">ROUND(Y3*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1442,6 +1567,9 @@
         <f aca="false">ROUND(Y4*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB4" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1522,6 +1650,9 @@
         <f aca="false">ROUND(Y5*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB5" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1602,6 +1733,9 @@
         <f aca="false">ROUND(Y6*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB6" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1682,6 +1816,9 @@
         <f aca="false">ROUND(Y7*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB7" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1762,6 +1899,9 @@
         <f aca="false">ROUND(Y8*10/$AA$1,0)</f>
         <v>10</v>
       </c>
+      <c r="AB8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1845,6 +1985,9 @@
         <f aca="false">ROUND(Y9*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1925,19 +2068,25 @@
         <f aca="false">ROUND(Y10*10/$AA$1,0)</f>
         <v>7</v>
       </c>
+      <c r="AB10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>0.548611111111111</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
@@ -2005,19 +2154,22 @@
         <f aca="false">ROUND(Y11*10/$AA$1,0)</f>
         <v>7</v>
       </c>
+      <c r="AB11" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>15</v>
@@ -2085,19 +2237,22 @@
         <f aca="false">ROUND(Y12*10/$AA$1,0)</f>
         <v>7</v>
       </c>
+      <c r="AB12" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>15</v>
@@ -2165,19 +2320,22 @@
         <f aca="false">ROUND(Y13*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB13" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>15</v>
@@ -2245,19 +2403,22 @@
         <f aca="false">ROUND(Y14*10/$AA$1,0)</f>
         <v>8</v>
       </c>
+      <c r="AB14" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>15</v>
@@ -2325,19 +2486,22 @@
         <f aca="false">ROUND(Y15*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB15" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>14</v>
@@ -2405,19 +2569,22 @@
         <f aca="false">ROUND(Y16*10/$AA$1,0)</f>
         <v>6</v>
       </c>
+      <c r="AB16" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>15</v>
@@ -2485,19 +2652,25 @@
         <f aca="false">ROUND(Y17*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>0.548611111111111</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>15</v>
@@ -2565,19 +2738,22 @@
         <f aca="false">ROUND(Y18*10/$AA$1,0)</f>
         <v>7</v>
       </c>
+      <c r="AB18" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>15</v>
@@ -2645,19 +2821,22 @@
         <f aca="false">ROUND(Y19*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB19" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>15</v>
@@ -2725,19 +2904,22 @@
         <f aca="false">ROUND(Y20*10/$AA$1,0)</f>
         <v>7</v>
       </c>
+      <c r="AB20" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>15</v>
@@ -2749,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>0.545833333333333</v>
@@ -2808,19 +2990,25 @@
         <f aca="false">ROUND(Y21*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>0.548611111111111</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>15</v>
@@ -2888,19 +3076,22 @@
         <f aca="false">ROUND(Y22*10/$AA$1,0)</f>
         <v>8</v>
       </c>
+      <c r="AB22" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>15</v>
@@ -2968,19 +3159,22 @@
         <f aca="false">ROUND(Y23*10/$AA$1,0)</f>
         <v>6</v>
       </c>
+      <c r="AB23" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>15</v>
@@ -3048,6 +3242,9 @@
         <f aca="false">ROUND(Y24*10/$AA$1,0)</f>
         <v>9</v>
       </c>
+      <c r="AB24" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
@@ -3109,10 +3306,14 @@
         <f aca="false">COUNTIF(T2:T24,"p")</f>
         <v>20</v>
       </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">COUNTIF(AB2:AB24,"P")</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">COUNTIF(H2:H24,"A")</f>
@@ -3139,13 +3340,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -3160,30 +3361,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3217,9 +3427,19 @@
         <f aca="false">ROUND(AVERAGE(C2:E2,I2),0)</f>
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="K2" s="7" t="str">
         <f aca="false">IF(J2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M2,L2,J2),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,7 +3458,7 @@
       <c r="E3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="9" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="n">
@@ -3255,9 +3475,19 @@
         <f aca="false">ROUND(AVERAGE(C3:E3,I3),0)</f>
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="7" t="str">
         <f aca="false">IF(J3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M3,L3,J3),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,9 +3520,19 @@
         <f aca="false">ROUND(AVERAGE(C4:E4,I4),0)</f>
         <v>10</v>
       </c>
-      <c r="K4" s="6" t="str">
+      <c r="K4" s="7" t="str">
         <f aca="false">IF(J4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M4,L4,J4),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,9 +3565,19 @@
         <f aca="false">ROUND(AVERAGE(C5:E5,I5),0)</f>
         <v>8</v>
       </c>
-      <c r="K5" s="6" t="str">
+      <c r="K5" s="7" t="str">
         <f aca="false">IF(J5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M5,L5,J5),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,7 +3596,7 @@
       <c r="E6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="9" t="n">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -3363,9 +3613,19 @@
         <f aca="false">ROUND(AVERAGE(C6:E6,I6),0)</f>
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="K6" s="7" t="str">
         <f aca="false">IF(J6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M6,L6,J6),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3644,7 @@
       <c r="E7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="9" t="n">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="n">
@@ -3401,9 +3661,19 @@
         <f aca="false">ROUND(AVERAGE(C7:E7,I7),0)</f>
         <v>9</v>
       </c>
-      <c r="K7" s="6" t="str">
+      <c r="K7" s="7" t="str">
         <f aca="false">IF(J7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M7,L7,J7),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,9 +3706,19 @@
         <f aca="false">ROUND(AVERAGE(C8:E8,I8),0)</f>
         <v>8</v>
       </c>
-      <c r="K8" s="6" t="str">
+      <c r="K8" s="7" t="str">
         <f aca="false">IF(J8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M8,L8,J8),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,9 +3751,19 @@
         <f aca="false">ROUND(AVERAGE(C9:E9,I9),0)</f>
         <v>10</v>
       </c>
-      <c r="K9" s="6" t="str">
+      <c r="K9" s="7" t="str">
         <f aca="false">IF(J9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M9,L9,J9),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,17 +3796,27 @@
         <f aca="false">ROUND(AVERAGE(C10:E10,I10),0)</f>
         <v>9</v>
       </c>
-      <c r="K10" s="6" t="str">
+      <c r="K10" s="7" t="str">
         <f aca="false">IF(J10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M10,L10,J10),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3541,9 +3841,19 @@
         <f aca="false">ROUND(AVERAGE(C11:E11,I11),0)</f>
         <v>4</v>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="K11" s="7" t="str">
         <f aca="false">IF(J11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M11,L11,J11),0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -3576,9 +3886,19 @@
         <f aca="false">ROUND(AVERAGE(C12:E12,I12),0)</f>
         <v>10</v>
       </c>
-      <c r="K12" s="6" t="str">
+      <c r="K12" s="7" t="str">
         <f aca="false">IF(J12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M12,L12,J12),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -3597,7 +3917,7 @@
       <c r="E13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="9" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
@@ -3614,9 +3934,19 @@
         <f aca="false">ROUND(AVERAGE(C13:E13,I13),0)</f>
         <v>8</v>
       </c>
-      <c r="K13" s="6" t="str">
+      <c r="K13" s="7" t="str">
         <f aca="false">IF(J13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M13,L13,J13),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,7 +3954,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -3649,9 +3979,19 @@
         <f aca="false">ROUND(AVERAGE(C14:E14,I14),0)</f>
         <v>10</v>
       </c>
-      <c r="K14" s="6" t="str">
+      <c r="K14" s="7" t="str">
         <f aca="false">IF(J14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M14,L14,J14),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,7 +3999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -3670,7 +4010,7 @@
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="9" t="n">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
@@ -3687,17 +4027,27 @@
         <f aca="false">ROUND(AVERAGE(C15:E15,I15),0)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="6" t="str">
+      <c r="K15" s="7" t="str">
         <f aca="false">IF(J15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="L15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M15,L15,J15),0)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -3722,9 +4072,19 @@
         <f aca="false">ROUND(AVERAGE(C16:E16,I16),0)</f>
         <v>6</v>
       </c>
-      <c r="K16" s="6" t="str">
+      <c r="K16" s="7" t="str">
         <f aca="false">IF(J16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M16,L16,J16),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,7 +4092,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -3757,9 +4117,19 @@
         <f aca="false">ROUND(AVERAGE(C17:E17,I17),0)</f>
         <v>8</v>
       </c>
-      <c r="K17" s="6" t="str">
+      <c r="K17" s="7" t="str">
         <f aca="false">IF(J17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M17,L17,J17),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,7 +4137,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -3778,7 +4148,7 @@
       <c r="E18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="9" t="n">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -3795,9 +4165,19 @@
         <f aca="false">ROUND(AVERAGE(C18:E18,I18),0)</f>
         <v>9</v>
       </c>
-      <c r="K18" s="6" t="str">
+      <c r="K18" s="7" t="str">
         <f aca="false">IF(J18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M18,L18,J18),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +4185,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -3830,9 +4210,19 @@
         <f aca="false">ROUND(AVERAGE(C19:E19,I19),0)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="6" t="str">
+      <c r="K19" s="7" t="str">
         <f aca="false">IF(J19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M19,L19,J19),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +4230,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7</v>
@@ -3851,7 +4241,7 @@
       <c r="E20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="9" t="n">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
@@ -3868,9 +4258,19 @@
         <f aca="false">ROUND(AVERAGE(C20:E20,I20),0)</f>
         <v>8</v>
       </c>
-      <c r="K20" s="6" t="str">
+      <c r="K20" s="7" t="str">
         <f aca="false">IF(J20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M20,L20,J20),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,7 +4278,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -3903,9 +4303,19 @@
         <f aca="false">ROUND(AVERAGE(C21:E21,I21),0)</f>
         <v>8</v>
       </c>
-      <c r="K21" s="6" t="str">
+      <c r="K21" s="7" t="str">
         <f aca="false">IF(J21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M21,L21,J21),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,7 +4323,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10</v>
@@ -3924,7 +4334,7 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="9" t="n">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="n">
@@ -3941,9 +4351,19 @@
         <f aca="false">ROUND(AVERAGE(C22:E22,I22),0)</f>
         <v>7</v>
       </c>
-      <c r="K22" s="6" t="str">
+      <c r="K22" s="7" t="str">
         <f aca="false">IF(J22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M22,L22,J22),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -3976,9 +4396,19 @@
         <f aca="false">ROUND(AVERAGE(C23:E23,I23),0)</f>
         <v>10</v>
       </c>
-      <c r="K23" s="6" t="str">
+      <c r="K23" s="7" t="str">
         <f aca="false">IF(J23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M23,L23,J23),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,7 +4416,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10</v>
@@ -4011,9 +4441,19 @@
         <f aca="false">ROUND(AVERAGE(C24:E24,I24),0)</f>
         <v>9</v>
       </c>
-      <c r="K24" s="6" t="str">
+      <c r="K24" s="7" t="str">
         <f aca="false">IF(J24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(M24,L24,J24),0)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4025,6 +4465,11 @@
   <conditionalFormatting sqref="K2:K24">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N24">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4044,11 +4489,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -4061,22 +4506,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,10 +4535,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -4113,10 +4558,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -4136,10 +4581,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -4159,10 +4604,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4182,10 +4627,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -4205,10 +4650,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -4228,10 +4673,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -4251,10 +4696,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -4274,10 +4719,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -4291,7 +4736,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4305,16 +4750,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -4328,16 +4773,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -4351,16 +4796,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -4374,16 +4819,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4397,16 +4842,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -4420,16 +4865,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -4443,16 +4888,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -4466,16 +4911,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -4489,16 +4934,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -4517,13 +4962,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -4531,13 +4976,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -4548,16 +4993,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -4571,16 +5016,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4594,16 +5039,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4617,16 +5062,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -4653,11 +5098,11 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -4670,13 +5115,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,10 +5135,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -4710,10 +5155,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -4730,10 +5175,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -4750,10 +5195,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -4770,10 +5215,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -4790,10 +5235,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -4810,10 +5255,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -4830,10 +5275,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4850,10 +5295,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4864,16 +5309,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -4884,16 +5329,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -4904,16 +5349,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -4924,16 +5369,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -4944,16 +5389,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4964,16 +5409,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -4984,16 +5429,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5004,16 +5449,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -5024,16 +5469,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5044,16 +5489,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -5064,16 +5509,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5084,16 +5529,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -5104,16 +5549,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5124,16 +5569,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5157,11 +5602,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -5175,22 +5620,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,10 +5649,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -5227,10 +5672,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -5250,10 +5695,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -5273,10 +5718,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5296,10 +5741,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5319,10 +5764,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -5342,10 +5787,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5365,10 +5810,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5388,10 +5833,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5405,7 +5850,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5419,16 +5864,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -5442,16 +5887,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -5465,16 +5910,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5493,13 +5938,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5507,13 +5952,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -5524,16 +5969,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -5547,16 +5992,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -5570,16 +6015,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5593,16 +6038,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -5616,16 +6061,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5639,16 +6084,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -5662,16 +6107,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5685,16 +6130,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -5708,16 +6153,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5731,16 +6176,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -5751,7 +6196,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5772,11 +6217,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -5790,22 +6235,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,10 +6264,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -5842,10 +6287,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -5867,10 +6312,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -5887,10 +6332,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5966,10 +6411,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5989,10 +6434,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -6006,7 +6451,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -6020,16 +6465,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6043,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -6057,16 +6502,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6080,7 +6525,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -6094,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -6108,7 +6553,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -6122,7 +6567,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -6136,16 +6581,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6159,7 +6604,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -6173,7 +6618,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -6187,7 +6632,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -6201,16 +6646,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -6224,16 +6669,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -6260,11 +6705,11 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -6276,22 +6721,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,10 +6744,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -6324,10 +6769,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -6338,10 +6783,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -6352,10 +6797,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -6366,10 +6811,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8</v>
@@ -6391,10 +6836,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -6405,10 +6850,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -6419,10 +6864,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -6433,10 +6878,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -6447,10 +6892,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -6461,10 +6906,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -6475,10 +6920,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3</v>
@@ -6489,10 +6934,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -6514,10 +6959,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -6525,13 +6970,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -6550,13 +6995,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
@@ -6564,13 +7009,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
@@ -6589,13 +7034,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -6603,13 +7048,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -6617,13 +7062,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>7</v>
@@ -6634,13 +7079,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>8</v>
@@ -6651,13 +7096,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>6</v>
@@ -6684,11 +7129,11 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6711,7 +7156,7 @@
         <v>45751</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,7 +7299,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -6869,7 +7314,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -6884,7 +7329,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -6899,7 +7344,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -6914,7 +7359,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -6929,7 +7374,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(C16:E16)</f>
@@ -6941,7 +7386,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(C17:E17)</f>
@@ -6953,7 +7398,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -6971,7 +7416,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">SUM(C19:E19)</f>
@@ -6983,7 +7428,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -7001,7 +7446,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -7019,7 +7464,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -7037,7 +7482,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -7052,13 +7497,527 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(C24:E24)</f>
         <v>0</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="310">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -1002,7 +1002,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,6 +1013,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1057,7 +1063,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1086,15 +1092,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,7 +1117,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1134,21 +1144,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1198,7 +1193,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1223,11 +1218,11 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AC21" activeCellId="0" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
@@ -3340,17 +3335,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="9.39"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,6 +3392,9 @@
       <c r="N1" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="O1" s="2" t="n">
+        <v>45856</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -3437,9 +3436,12 @@
       <c r="M2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M2,L2,J2),0)</f>
         <v>7</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,7 +3460,7 @@
       <c r="E3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="n">
@@ -3485,9 +3487,12 @@
       <c r="M3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M3,L3,J3),0)</f>
         <v>9</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,9 +3535,12 @@
       <c r="M4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M4,L4,J4),0)</f>
         <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,9 +3583,12 @@
       <c r="M5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M5,L5,J5),0)</f>
         <v>9</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,7 +3607,7 @@
       <c r="E6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -3623,9 +3634,12 @@
       <c r="M6" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M6,L6,J6),0)</f>
         <v>9</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,7 +3658,7 @@
       <c r="E7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="n">
@@ -3671,9 +3685,12 @@
       <c r="M7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M7,L7,J7),0)</f>
         <v>9</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,19 +3709,22 @@
       <c r="E8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
+      <c r="F8" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>45784</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">F8+H8/2</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J8" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C8:E8,I8),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="str">
         <f aca="false">IF(J8&lt;7,"TEP","TEA")</f>
@@ -3716,9 +3736,12 @@
       <c r="M8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M8,L8,J8),0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,9 +3784,12 @@
       <c r="M9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M9,L9,J9),0)</f>
         <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,10 +3832,13 @@
       <c r="M10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M10,L10,J10),0)</f>
         <v>8</v>
       </c>
+      <c r="O10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -3827,23 +3856,26 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>3</v>
+      <c r="F11" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>45856</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>23</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">F11+H11/2</f>
-        <v>2.5</v>
+        <v>18.5</v>
       </c>
       <c r="J11" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C11:E11,I11),0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K11" s="7" t="str">
         <f aca="false">IF(J11&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>4.5</v>
@@ -3851,9 +3883,12 @@
       <c r="M11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M11,L11,J11),0)</f>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,9 +3931,12 @@
       <c r="M12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M12,L12,J12),0)</f>
         <v>9</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,7 +3955,7 @@
       <c r="E13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
@@ -3944,9 +3982,12 @@
       <c r="M13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M13,L13,J13),0)</f>
         <v>9</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,9 +4030,12 @@
       <c r="M14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M14,L14,J14),0)</f>
         <v>9</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,7 +4054,7 @@
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
@@ -4037,9 +4081,12 @@
       <c r="M15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M15,L15,J15),0)</f>
         <v>9</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,9 +4129,12 @@
       <c r="M16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M16,L16,J16),0)</f>
         <v>7</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,9 +4177,12 @@
       <c r="M17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M17,L17,J17),0)</f>
         <v>9</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,7 +4201,7 @@
       <c r="E18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -4175,9 +4228,12 @@
       <c r="M18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M18,L18,J18),0)</f>
         <v>8</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,9 +4276,12 @@
       <c r="M19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M19,L19,J19),0)</f>
         <v>10</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,7 +4300,7 @@
       <c r="E20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
@@ -4268,9 +4327,12 @@
       <c r="M20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="8" t="n">
+      <c r="N20" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M20,L20,J20),0)</f>
         <v>8</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,9 +4375,12 @@
       <c r="M21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N21" s="8" t="n">
+      <c r="N21" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M21,L21,J21),0)</f>
         <v>8</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +4399,7 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="n">
@@ -4361,9 +4426,12 @@
       <c r="M22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M22,L22,J22),0)</f>
         <v>8</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,9 +4474,12 @@
       <c r="M23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N23" s="8" t="n">
+      <c r="N23" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M23,L23,J23),0)</f>
         <v>7</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,24 +4522,28 @@
       <c r="M24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N24" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(M24,L24,J24),0)</f>
         <v>8</v>
       </c>
+      <c r="O24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O25" s="0" t="n">
+        <f aca="false">COUNTIF(O2:O24,"P")</f>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J24">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K2:K24">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N24">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4489,11 +4564,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -5098,11 +5173,11 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -5602,11 +5677,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6217,11 +6292,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6705,11 +6780,11 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -7129,11 +7204,11 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -7520,15 +7595,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.51"/>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -1063,7 +1063,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1085,10 +1085,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1222,7 +1218,7 @@
       <selection pane="topLeft" activeCell="AC21" activeCellId="0" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
@@ -3338,15 +3334,16 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="9.39"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="3" style="0" width="9.39"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.56"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="12" style="0" width="9.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,7 +3423,7 @@
         <f aca="false">ROUND(AVERAGE(C2:E2,I2),0)</f>
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="str">
+      <c r="K2" s="6" t="str">
         <f aca="false">IF(J2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3460,7 +3457,7 @@
       <c r="E3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="n">
@@ -3477,7 +3474,7 @@
         <f aca="false">ROUND(AVERAGE(C3:E3,I3),0)</f>
         <v>8</v>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K3" s="6" t="str">
         <f aca="false">IF(J3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3525,7 +3522,7 @@
         <f aca="false">ROUND(AVERAGE(C4:E4,I4),0)</f>
         <v>10</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="K4" s="6" t="str">
         <f aca="false">IF(J4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3573,7 +3570,7 @@
         <f aca="false">ROUND(AVERAGE(C5:E5,I5),0)</f>
         <v>8</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="K5" s="6" t="str">
         <f aca="false">IF(J5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3607,7 +3604,7 @@
       <c r="E6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -3624,7 +3621,7 @@
         <f aca="false">ROUND(AVERAGE(C6:E6,I6),0)</f>
         <v>9</v>
       </c>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="6" t="str">
         <f aca="false">IF(J6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3658,7 +3655,7 @@
       <c r="E7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="n">
@@ -3675,7 +3672,7 @@
         <f aca="false">ROUND(AVERAGE(C7:E7,I7),0)</f>
         <v>9</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="K7" s="6" t="str">
         <f aca="false">IF(J7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3709,10 +3706,10 @@
       <c r="E8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="F8" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>45784</v>
       </c>
       <c r="H8" s="0" t="n">
@@ -3726,7 +3723,7 @@
         <f aca="false">ROUND(AVERAGE(C8:E8,I8),0)</f>
         <v>10</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="K8" s="6" t="str">
         <f aca="false">IF(J8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3774,7 +3771,7 @@
         <f aca="false">ROUND(AVERAGE(C9:E9,I9),0)</f>
         <v>10</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="K9" s="6" t="str">
         <f aca="false">IF(J9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3822,7 +3819,7 @@
         <f aca="false">ROUND(AVERAGE(C10:E10,I10),0)</f>
         <v>9</v>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="6" t="str">
         <f aca="false">IF(J10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3856,13 +3853,13 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="9" t="n">
         <v>45856</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="8" t="n">
         <v>23</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -3873,7 +3870,7 @@
         <f aca="false">ROUND(AVERAGE(C11:E11,I11),0)</f>
         <v>8</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="K11" s="6" t="str">
         <f aca="false">IF(J11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3921,7 +3918,7 @@
         <f aca="false">ROUND(AVERAGE(C12:E12,I12),0)</f>
         <v>10</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="K12" s="6" t="str">
         <f aca="false">IF(J12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3955,7 +3952,7 @@
       <c r="E13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
@@ -3972,7 +3969,7 @@
         <f aca="false">ROUND(AVERAGE(C13:E13,I13),0)</f>
         <v>8</v>
       </c>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="6" t="str">
         <f aca="false">IF(J13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4020,7 +4017,7 @@
         <f aca="false">ROUND(AVERAGE(C14:E14,I14),0)</f>
         <v>10</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="K14" s="6" t="str">
         <f aca="false">IF(J14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4054,7 +4051,7 @@
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
@@ -4071,7 +4068,7 @@
         <f aca="false">ROUND(AVERAGE(C15:E15,I15),0)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="K15" s="6" t="str">
         <f aca="false">IF(J15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4119,7 +4116,7 @@
         <f aca="false">ROUND(AVERAGE(C16:E16,I16),0)</f>
         <v>6</v>
       </c>
-      <c r="K16" s="7" t="str">
+      <c r="K16" s="6" t="str">
         <f aca="false">IF(J16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4167,7 +4164,7 @@
         <f aca="false">ROUND(AVERAGE(C17:E17,I17),0)</f>
         <v>8</v>
       </c>
-      <c r="K17" s="7" t="str">
+      <c r="K17" s="6" t="str">
         <f aca="false">IF(J17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4201,7 +4198,7 @@
       <c r="E18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -4218,7 +4215,7 @@
         <f aca="false">ROUND(AVERAGE(C18:E18,I18),0)</f>
         <v>9</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="K18" s="6" t="str">
         <f aca="false">IF(J18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4266,7 +4263,7 @@
         <f aca="false">ROUND(AVERAGE(C19:E19,I19),0)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="7" t="str">
+      <c r="K19" s="6" t="str">
         <f aca="false">IF(J19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4300,7 +4297,7 @@
       <c r="E20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
@@ -4317,7 +4314,7 @@
         <f aca="false">ROUND(AVERAGE(C20:E20,I20),0)</f>
         <v>8</v>
       </c>
-      <c r="K20" s="7" t="str">
+      <c r="K20" s="6" t="str">
         <f aca="false">IF(J20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4365,7 +4362,7 @@
         <f aca="false">ROUND(AVERAGE(C21:E21,I21),0)</f>
         <v>8</v>
       </c>
-      <c r="K21" s="7" t="str">
+      <c r="K21" s="6" t="str">
         <f aca="false">IF(J21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4399,7 +4396,7 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="7" t="n">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="n">
@@ -4416,7 +4413,7 @@
         <f aca="false">ROUND(AVERAGE(C22:E22,I22),0)</f>
         <v>7</v>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="K22" s="6" t="str">
         <f aca="false">IF(J22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4464,7 +4461,7 @@
         <f aca="false">ROUND(AVERAGE(C23:E23,I23),0)</f>
         <v>10</v>
       </c>
-      <c r="K23" s="7" t="str">
+      <c r="K23" s="6" t="str">
         <f aca="false">IF(J23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4512,7 +4509,7 @@
         <f aca="false">ROUND(AVERAGE(C24:E24,I24),0)</f>
         <v>9</v>
       </c>
-      <c r="K24" s="7" t="str">
+      <c r="K24" s="6" t="str">
         <f aca="false">IF(J24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4568,7 +4565,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -5177,7 +5174,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -5681,7 +5678,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6296,7 +6293,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6784,7 +6781,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -7208,7 +7205,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -7601,7 +7598,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.6"/>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="322">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -63,6 +63,15 @@
     <t xml:space="preserve">Nota</t>
   </si>
   <si>
+    <t xml:space="preserve">OBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo Robot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maitena Nontue</t>
   </si>
   <si>
@@ -87,6 +96,9 @@
     <t xml:space="preserve">alegresofiaangelica@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melody Berenice</t>
   </si>
   <si>
@@ -105,6 +117,9 @@
     <t xml:space="preserve">faanton2009@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emiliano Yoel</t>
   </si>
   <si>
@@ -114,6 +129,9 @@
     <t xml:space="preserve">lidiamax861@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emilio Salvador</t>
   </si>
   <si>
@@ -132,6 +150,9 @@
     <t xml:space="preserve">tizianoinac23@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 6-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alejo Nicolas</t>
   </si>
   <si>
@@ -147,6 +168,9 @@
     <t xml:space="preserve">olimpiadas</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tobías Baltazar</t>
   </si>
   <si>
@@ -168,6 +192,9 @@
     <t xml:space="preserve">SILGON71@YAHOO.COM.AR</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 3 -Pelelo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dylan Ezequiel</t>
   </si>
   <si>
@@ -204,6 +231,9 @@
     <t xml:space="preserve">martinezbrisa2019@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facundo Nicolas</t>
   </si>
   <si>
@@ -213,6 +243,9 @@
     <t xml:space="preserve">natalia.martorelli1984@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juan Bautista</t>
   </si>
   <si>
@@ -258,9 +291,6 @@
     <t xml:space="preserve">kevinperezderosas5@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valentin</t>
   </si>
   <si>
@@ -288,7 +318,13 @@
     <t xml:space="preserve">leonavilche@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">media falta</t>
+  </si>
+  <si>
     <t xml:space="preserve">ausentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">1-codigos</t>
@@ -1212,19 +1248,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC21" activeCellId="0" sqref="AC21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ19" activeCellId="0" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="5" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="10.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="16" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="14.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,61 +1351,85 @@
       <c r="AB1" s="2" t="n">
         <v>45854</v>
       </c>
+      <c r="AC1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U2" s="3" t="n">
         <f aca="false">COUNTIF(E2:T2,"C")</f>
@@ -1393,7 +1456,19 @@
         <v>3</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,55 +1476,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U3" s="3" t="n">
         <f aca="false">COUNTIF(E3:T3,"C")</f>
@@ -1476,7 +1551,25 @@
         <v>9</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,55 +1577,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U4" s="3" t="n">
         <f aca="false">COUNTIF(E4:T4,"C")</f>
@@ -1559,7 +1652,19 @@
         <v>9</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,55 +1672,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U5" s="3" t="n">
         <f aca="false">COUNTIF(E5:T5,"C")</f>
@@ -1642,7 +1747,25 @@
         <v>9</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,55 +1773,55 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U6" s="3" t="n">
         <f aca="false">COUNTIF(E6:T6,"C")</f>
@@ -1725,7 +1848,22 @@
         <v>9</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,55 +1871,55 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U7" s="3" t="n">
         <f aca="false">COUNTIF(E7:T7,"C")</f>
@@ -1808,7 +1946,19 @@
         <v>9</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,55 +1966,55 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U8" s="3" t="n">
         <f aca="false">COUNTIF(E8:T8,"C")</f>
@@ -1891,7 +2041,25 @@
         <v>10</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,58 +2067,58 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U9" s="3" t="n">
         <f aca="false">COUNTIF(E9:T9,"C")</f>
@@ -1977,7 +2145,22 @@
         <v>9</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,55 +2168,55 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U10" s="3" t="n">
         <f aca="false">COUNTIF(E10:T10,"C")</f>
@@ -2060,66 +2243,81 @@
         <v>7</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AC10" s="5" t="n">
         <v>0.548611111111111</v>
       </c>
+      <c r="AD10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U11" s="3" t="n">
         <f aca="false">COUNTIF(E11:T11,"C")</f>
@@ -2146,7 +2344,22 @@
         <v>7</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,55 +2367,55 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U12" s="3" t="n">
         <f aca="false">COUNTIF(E12:T12,"C")</f>
@@ -2229,7 +2442,22 @@
         <v>7</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,55 +2465,55 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U13" s="3" t="n">
         <f aca="false">COUNTIF(E13:T13,"C")</f>
@@ -2312,7 +2540,22 @@
         <v>9</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ13" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,55 +2563,55 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U14" s="3" t="n">
         <f aca="false">COUNTIF(E14:T14,"C")</f>
@@ -2395,7 +2638,19 @@
         <v>8</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI14" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,55 +2658,55 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U15" s="3" t="n">
         <f aca="false">COUNTIF(E15:T15,"C")</f>
@@ -2478,7 +2733,25 @@
         <v>9</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,55 +2759,55 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U16" s="3" t="n">
         <f aca="false">COUNTIF(E16:T16,"C")</f>
@@ -2561,7 +2834,22 @@
         <v>6</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,55 +2857,55 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U17" s="3" t="n">
         <f aca="false">COUNTIF(E17:T17,"C")</f>
@@ -2644,66 +2932,78 @@
         <v>9</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="5" t="n">
         <v>0.548611111111111</v>
       </c>
+      <c r="AD17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI17" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U18" s="3" t="n">
         <f aca="false">COUNTIF(E18:T18,"C")</f>
@@ -2730,7 +3030,22 @@
         <v>7</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ18" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,55 +3053,55 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U19" s="3" t="n">
         <f aca="false">COUNTIF(E19:T19,"C")</f>
@@ -2813,7 +3128,22 @@
         <v>9</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ19" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,55 +3151,55 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U20" s="3" t="n">
         <f aca="false">COUNTIF(E20:T20,"C")</f>
@@ -2896,7 +3226,22 @@
         <v>7</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ20" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,58 +3249,58 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>0.545833333333333</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U21" s="3" t="n">
         <f aca="false">COUNTIF(E21:T21,"C")</f>
@@ -2982,10 +3327,22 @@
         <v>9</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AC21" s="5" t="n">
         <v>0.548611111111111</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,55 +3350,55 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U22" s="3" t="n">
         <f aca="false">COUNTIF(E22:T22,"C")</f>
@@ -3068,7 +3425,22 @@
         <v>8</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ22" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,55 +3448,55 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U23" s="3" t="n">
         <f aca="false">COUNTIF(E23:T23,"C")</f>
@@ -3151,7 +3523,25 @@
         <v>6</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ23" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,55 +3549,55 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U24" s="3" t="n">
         <f aca="false">COUNTIF(E24:T24,"C")</f>
@@ -3234,10 +3624,28 @@
         <v>9</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="D25" s="0" t="s">
         <v>6</v>
       </c>
@@ -3301,10 +3709,29 @@
         <f aca="false">COUNTIF(AB2:AB24,"P")</f>
         <v>18</v>
       </c>
+      <c r="AD25" s="0" t="n">
+        <f aca="false">COUNTIF(AD2:AD24,"P")</f>
+        <v>19</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <f aca="false">COUNTIF(AE2:AE24,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <f aca="false">COUNTIF(AG2:AG24,"P")</f>
+        <v>19</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <f aca="false">COUNTIF(AI2:AI24,"P")</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="D26" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">COUNTIF(H2:H24,"A")</f>
@@ -3313,6 +3740,52 @@
       <c r="J26" s="0" t="n">
         <f aca="false">COUNTIF(J2:J24,"A")</f>
         <v>2</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <f aca="false">COUNTIF(AE2:AE24,"m")</f>
+        <v>4</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <f aca="false">COUNTIF(AG2:AG24,"m")</f>
+        <v>3</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <f aca="false">COUNTIF(AI2:AI24,"m")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <f aca="false">COUNTIF(AE2:AE24,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <f aca="false">COUNTIF(AG2:AG24,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <f aca="false">COUNTIF(AI2:AI24,"T")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <f aca="false">SUM(AE25:AE27)</f>
+        <v>21</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <f aca="false">SUM(AG25:AG27)</f>
+        <v>22</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <f aca="false">SUM(AI25:AI27)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3333,16 +3806,16 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="3" style="0" width="9.39"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.56"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="12" style="0" width="9.58"/>
   </cols>
   <sheetData>
@@ -3354,40 +3827,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O1" s="2" t="n">
         <v>45856</v>
@@ -3398,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>9</v>
@@ -3438,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8</v>
@@ -3489,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -3537,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,7 +4018,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -3585,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -3636,7 +4109,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -3687,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -3738,7 +4211,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -3786,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,7 +4267,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -3834,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3885,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +4366,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -3933,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -3984,7 +4457,7 @@
         <v>9</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,7 +4465,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -4032,7 +4505,7 @@
         <v>9</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -4083,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -4131,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,7 +4612,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -4179,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4660,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -4230,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,7 +4711,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -4278,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,7 +4759,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7</v>
@@ -4329,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -4377,7 +4850,7 @@
         <v>8</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,7 +4858,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10</v>
@@ -4428,7 +4901,7 @@
         <v>8</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4909,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -4476,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,7 +4957,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10</v>
@@ -4524,7 +4997,7 @@
         <v>8</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,7 +5038,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -4578,22 +5051,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,16 +5074,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -4624,16 +5097,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -4647,16 +5120,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -4670,16 +5143,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4693,16 +5166,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -4716,16 +5189,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -4739,16 +5212,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -4762,16 +5235,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -4785,16 +5258,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -4808,7 +5281,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4822,16 +5295,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -4845,16 +5318,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -4868,16 +5341,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -4891,16 +5364,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4914,16 +5387,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -4937,16 +5410,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -4960,16 +5433,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -4983,16 +5456,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -5006,16 +5479,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5034,13 +5507,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5048,13 +5521,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -5065,16 +5538,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5088,16 +5561,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -5111,16 +5584,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5134,16 +5607,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5174,7 +5647,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -5187,13 +5660,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,16 +5674,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5221,16 +5694,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -5241,16 +5714,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5261,16 +5734,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -5281,16 +5754,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5301,16 +5774,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -5321,16 +5794,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5341,16 +5814,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5361,16 +5834,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5381,16 +5854,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5401,16 +5874,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5421,16 +5894,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5441,16 +5914,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5461,16 +5934,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5481,16 +5954,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5501,16 +5974,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5521,16 +5994,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -5541,16 +6014,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5561,16 +6034,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -5581,16 +6054,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5601,16 +6074,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -5621,16 +6094,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5641,16 +6114,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5678,7 +6151,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -5692,22 +6165,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,16 +6188,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -5738,16 +6211,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -5761,16 +6234,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -5784,16 +6257,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5807,16 +6280,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5830,16 +6303,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -5853,16 +6326,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5876,16 +6349,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5899,16 +6372,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5922,7 +6395,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5936,16 +6409,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -5959,16 +6432,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -5982,16 +6455,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -6010,13 +6483,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6024,13 +6497,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -6041,16 +6514,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -6064,16 +6537,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -6087,16 +6560,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6110,16 +6583,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -6133,16 +6606,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6156,16 +6629,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6179,16 +6652,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -6202,16 +6675,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -6225,16 +6698,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6248,16 +6721,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -6268,7 +6741,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="0" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6293,7 +6766,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6307,22 +6780,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,16 +6803,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6353,16 +6826,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -6381,13 +6854,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -6398,16 +6871,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6421,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -6435,7 +6908,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -6449,7 +6922,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -6463,7 +6936,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -6477,16 +6950,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6500,16 +6973,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -6523,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -6537,16 +7010,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6560,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -6574,16 +7047,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6597,7 +7070,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -6611,7 +7084,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -6625,7 +7098,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -6639,7 +7112,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -6653,16 +7126,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6676,7 +7149,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -6690,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -6704,7 +7177,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -6718,16 +7191,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -6741,16 +7214,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -6781,7 +7254,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -6793,33 +7266,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -6838,13 +7311,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -6852,13 +7325,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -6866,13 +7339,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -6880,13 +7353,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8</v>
@@ -6905,13 +7378,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -6919,13 +7392,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -6933,13 +7406,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -6947,13 +7420,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -6961,13 +7434,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -6975,13 +7448,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -6989,13 +7462,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3</v>
@@ -7003,13 +7476,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -7028,13 +7501,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -7042,13 +7515,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -7067,13 +7540,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
@@ -7081,13 +7554,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
@@ -7106,13 +7579,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -7120,13 +7593,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -7134,13 +7607,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>7</v>
@@ -7151,13 +7624,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>8</v>
@@ -7168,13 +7641,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>6</v>
@@ -7205,7 +7678,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -7228,7 +7701,7 @@
         <v>45751</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
@@ -7254,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -7269,7 +7742,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -7284,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(C5:E5)</f>
@@ -7296,7 +7769,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">SUM(C6:E6)</f>
@@ -7308,7 +7781,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -7323,7 +7796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -7338,7 +7811,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -7353,7 +7826,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -7371,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -7386,7 +7859,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -7401,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -7416,7 +7889,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -7431,7 +7904,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -7446,7 +7919,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(C16:E16)</f>
@@ -7458,7 +7931,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(C17:E17)</f>
@@ -7470,7 +7943,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -7488,7 +7961,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">SUM(C19:E19)</f>
@@ -7500,7 +7973,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -7518,7 +7991,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -7536,7 +8009,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -7554,7 +8027,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -7569,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(C24:E24)</f>
@@ -7592,13 +8065,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.6"/>
@@ -7614,10 +8087,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,16 +8098,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9.25</v>
@@ -7645,16 +8118,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -7665,16 +8138,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -7685,16 +8158,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9.5</v>
@@ -7705,16 +8178,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8.75</v>
@@ -7725,16 +8198,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9.75</v>
@@ -7745,16 +8218,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9.75</v>
@@ -7765,16 +8238,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -7785,16 +8258,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.75</v>
@@ -7805,16 +8278,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4.5</v>
@@ -7825,16 +8298,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8.75</v>
@@ -7845,16 +8318,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -7865,16 +8338,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -7885,16 +8358,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -7905,16 +8378,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -7925,16 +8398,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8.75</v>
@@ -7945,16 +8418,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8.75</v>
@@ -7965,16 +8438,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9.5</v>
@@ -7985,16 +8458,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.75</v>
@@ -8005,16 +8478,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8.25</v>
@@ -8025,16 +8498,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.75</v>
@@ -8045,16 +8518,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4.25</v>
@@ -8065,31 +8538,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="323">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -108,6 +108,9 @@
     <t xml:space="preserve">mabyvega74@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Robot 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabrizio Daniel</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emilio Salvador</t>
   </si>
   <si>
@@ -178,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">nataliafsalguero@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve">Gonzalo Agustín</t>
@@ -1149,7 +1152,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1248,13 +1266,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A2:AL29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ19" activeCellId="0" sqref="AJ19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL32" activeCellId="0" sqref="AL32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
@@ -1266,244 +1284,152 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="14.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>45791</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>45798</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>45805</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P2" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>45835</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="S2" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="T2" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="0" t="n">
+      <c r="Y2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="AE1" s="2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>45896</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>45903</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>45905</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ2" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <f aca="false">COUNTIF(E2:T2,"C")</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <f aca="false">COUNTIF(E2:T2,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <f aca="false">COUNTIF(E2:T2,"M")</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <f aca="false">COUNTIF(E2:T2,"M")</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <f aca="false">U2+V2+W2/2+X2/4</f>
-        <v>4</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <f aca="false">ROUND(Y2*10/$AA$1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>18</v>
+      <c r="AK2" s="2" t="n">
+        <v>45910</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>17</v>
@@ -1512,16 +1438,16 @@
         <v>18</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T3" s="0" t="s">
         <v>18</v>
@@ -1532,7 +1458,7 @@
       </c>
       <c r="V3" s="3" t="n">
         <f aca="false">COUNTIF(E3:T3,"P")</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="W3" s="3" t="n">
         <f aca="false">COUNTIF(E3:T3,"M")</f>
@@ -1544,46 +1470,43 @@
       </c>
       <c r="Y3" s="3" t="n">
         <f aca="false">U3+V3+W3/2+X3/4</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <f aca="false">ROUND(Y3*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y3*10/$AA$2,0)</f>
+        <v>3</v>
       </c>
       <c r="AB3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="0" t="s">
-        <v>22</v>
+      <c r="AK3" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>18</v>
@@ -1604,10 +1527,10 @@
         <v>18</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>18</v>
@@ -1619,7 +1542,7 @@
         <v>18</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>18</v>
@@ -1633,7 +1556,7 @@
       </c>
       <c r="V4" s="3" t="n">
         <f aca="false">COUNTIF(E4:T4,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W4" s="3" t="n">
         <f aca="false">COUNTIF(E4:T4,"M")</f>
@@ -1645,10 +1568,10 @@
       </c>
       <c r="Y4" s="3" t="n">
         <f aca="false">U4+V4+W4/2+X4/4</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <f aca="false">ROUND(Y4*10/$AA$1,0)</f>
+        <f aca="false">ROUND(Y4*10/$AA$2,0)</f>
         <v>9</v>
       </c>
       <c r="AB4" s="0" t="s">
@@ -1663,22 +1586,31 @@
       <c r="AG4" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AH4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK4" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>18</v>
@@ -1705,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>18</v>
@@ -1714,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>18</v>
@@ -1743,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <f aca="false">ROUND(Y5*10/$AA$1,0)</f>
+        <f aca="false">ROUND(Y5*10/$AA$2,0)</f>
         <v>9</v>
       </c>
       <c r="AB5" s="0" t="s">
@@ -1758,34 +1690,34 @@
       <c r="AG5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="AI5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>18</v>
@@ -1800,13 +1732,13 @@
         <v>18</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>18</v>
@@ -1829,7 +1761,7 @@
       </c>
       <c r="V6" s="3" t="n">
         <f aca="false">COUNTIF(E6:T6,"P")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6" s="3" t="n">
         <f aca="false">COUNTIF(E6:T6,"M")</f>
@@ -1841,10 +1773,10 @@
       </c>
       <c r="Y6" s="3" t="n">
         <f aca="false">U6+V6+W6/2+X6/4</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <f aca="false">ROUND(Y6*10/$AA$1,0)</f>
+        <f aca="false">ROUND(Y6*10/$AA$2,0)</f>
         <v>9</v>
       </c>
       <c r="AB6" s="0" t="s">
@@ -1854,39 +1786,45 @@
         <v>18</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF6" s="5" t="n">
-        <v>0.541666666666667</v>
+        <v>18</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AI6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK6" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>18</v>
@@ -1898,7 +1836,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>18</v>
@@ -1927,7 +1865,7 @@
       </c>
       <c r="V7" s="3" t="n">
         <f aca="false">COUNTIF(E7:T7,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W7" s="3" t="n">
         <f aca="false">COUNTIF(E7:T7,"M")</f>
@@ -1939,10 +1877,10 @@
       </c>
       <c r="Y7" s="3" t="n">
         <f aca="false">U7+V7+W7/2+X7/4</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <f aca="false">ROUND(Y7*10/$AA$1,0)</f>
+        <f aca="false">ROUND(Y7*10/$AA$2,0)</f>
         <v>9</v>
       </c>
       <c r="AB7" s="0" t="s">
@@ -1952,28 +1890,37 @@
         <v>18</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>0.541666666666667</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI7" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL7" s="5" t="n">
+        <v>0.552083333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="0" t="s">
         <v>18</v>
       </c>
@@ -1981,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>18</v>
@@ -1993,7 +1940,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>18</v>
@@ -2022,7 +1969,7 @@
       </c>
       <c r="V8" s="3" t="n">
         <f aca="false">COUNTIF(E8:T8,"P")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W8" s="3" t="n">
         <f aca="false">COUNTIF(E8:T8,"M")</f>
@@ -2034,11 +1981,11 @@
       </c>
       <c r="Y8" s="3" t="n">
         <f aca="false">U8+V8+W8/2+X8/4</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <f aca="false">ROUND(Y8*10/$AA$1,0)</f>
-        <v>10</v>
+        <f aca="false">ROUND(Y8*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB8" s="0" t="s">
         <v>18</v>
@@ -2047,34 +1994,31 @@
         <v>18</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="AI8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AJ8" s="0" t="s">
-        <v>40</v>
+      <c r="AK8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="0" t="s">
         <v>18</v>
       </c>
@@ -2091,19 +2035,16 @@
         <v>18</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>18</v>
@@ -2122,11 +2063,11 @@
       </c>
       <c r="U9" s="3" t="n">
         <f aca="false">COUNTIF(E9:T9,"C")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="n">
         <f aca="false">COUNTIF(E9:T9,"P")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W9" s="3" t="n">
         <f aca="false">COUNTIF(E9:T9,"M")</f>
@@ -2138,11 +2079,11 @@
       </c>
       <c r="Y9" s="3" t="n">
         <f aca="false">U9+V9+W9/2+X9/4</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <f aca="false">ROUND(Y9*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y9*10/$AA$2,0)</f>
+        <v>10</v>
       </c>
       <c r="AB9" s="0" t="s">
         <v>18</v>
@@ -2156,52 +2097,61 @@
       <c r="AG9" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AH9" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="AI9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>18</v>
@@ -2220,11 +2170,11 @@
       </c>
       <c r="U10" s="3" t="n">
         <f aca="false">COUNTIF(E10:T10,"C")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3" t="n">
         <f aca="false">COUNTIF(E10:T10,"P")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W10" s="3" t="n">
         <f aca="false">COUNTIF(E10:T10,"M")</f>
@@ -2236,47 +2186,47 @@
       </c>
       <c r="Y10" s="3" t="n">
         <f aca="false">U10+V10+W10/2+X10/4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <f aca="false">ROUND(Y10*10/$AA$1,0)</f>
-        <v>7</v>
+        <f aca="false">ROUND(Y10*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="5" t="n">
-        <v>0.548611111111111</v>
+        <v>18</v>
       </c>
       <c r="AD10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF10" s="5" t="n">
-        <v>0.541666666666667</v>
+        <v>18</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="0" t="s">
         <v>18</v>
       </c>
@@ -2287,19 +2237,19 @@
         <v>17</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>18</v>
@@ -2311,13 +2261,13 @@
         <v>18</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U11" s="3" t="n">
         <f aca="false">COUNTIF(E11:T11,"C")</f>
@@ -2340,40 +2290,49 @@
         <v>10</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <f aca="false">ROUND(Y11*10/$AA$1,0)</f>
+        <f aca="false">ROUND(Y11*10/$AA$2,0)</f>
         <v>7</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>0.548611111111111</v>
       </c>
       <c r="AD11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0.541666666666667</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ11" s="0" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL11" s="5" t="n">
+        <v>0.552083333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>18</v>
@@ -2388,19 +2347,19 @@
         <v>18</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>18</v>
@@ -2415,7 +2374,7 @@
         <v>18</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U12" s="3" t="n">
         <f aca="false">COUNTIF(E12:T12,"C")</f>
@@ -2438,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="Z12" s="4" t="n">
-        <f aca="false">ROUND(Y12*10/$AA$1,0)</f>
+        <f aca="false">ROUND(Y12*10/$AA$2,0)</f>
         <v>7</v>
       </c>
       <c r="AB12" s="0" t="s">
@@ -2448,31 +2407,34 @@
         <v>18</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF12" s="5" t="n">
-        <v>0.541666666666667</v>
+        <v>17</v>
       </c>
       <c r="AG12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AI12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK12" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" s="0" t="s">
         <v>18</v>
       </c>
@@ -2480,7 +2442,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>18</v>
@@ -2498,7 +2460,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>18</v>
@@ -2521,7 +2483,7 @@
       </c>
       <c r="V13" s="3" t="n">
         <f aca="false">COUNTIF(E13:T13,"P")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W13" s="3" t="n">
         <f aca="false">COUNTIF(E13:T13,"M")</f>
@@ -2533,11 +2495,11 @@
       </c>
       <c r="Y13" s="3" t="n">
         <f aca="false">U13+V13+W13/2+X13/4</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="4" t="n">
-        <f aca="false">ROUND(Y13*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y13*10/$AA$2,0)</f>
+        <v>7</v>
       </c>
       <c r="AB13" s="0" t="s">
         <v>18</v>
@@ -2546,7 +2508,10 @@
         <v>18</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0.541666666666667</v>
       </c>
       <c r="AG13" s="0" t="s">
         <v>18</v>
@@ -2554,23 +2519,23 @@
       <c r="AI13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AJ13" s="0" t="s">
-        <v>46</v>
+      <c r="AK13" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="0" t="s">
         <v>18</v>
       </c>
@@ -2578,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>18</v>
@@ -2619,7 +2584,7 @@
       </c>
       <c r="V14" s="3" t="n">
         <f aca="false">COUNTIF(E14:T14,"P")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W14" s="3" t="n">
         <f aca="false">COUNTIF(E14:T14,"M")</f>
@@ -2631,17 +2596,17 @@
       </c>
       <c r="Y14" s="3" t="n">
         <f aca="false">U14+V14+W14/2+X14/4</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="4" t="n">
-        <f aca="false">ROUND(Y14*10/$AA$1,0)</f>
-        <v>8</v>
+        <f aca="false">ROUND(Y14*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE14" s="0" t="s">
         <v>18</v>
@@ -2650,22 +2615,28 @@
         <v>18</v>
       </c>
       <c r="AI14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK14" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" s="0" t="s">
         <v>18</v>
       </c>
@@ -2685,13 +2656,13 @@
         <v>18</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>18</v>
@@ -2700,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>18</v>
@@ -2710,11 +2681,11 @@
       </c>
       <c r="U15" s="3" t="n">
         <f aca="false">COUNTIF(E15:T15,"C")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="n">
         <f aca="false">COUNTIF(E15:T15,"P")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W15" s="3" t="n">
         <f aca="false">COUNTIF(E15:T15,"M")</f>
@@ -2726,17 +2697,17 @@
       </c>
       <c r="Y15" s="3" t="n">
         <f aca="false">U15+V15+W15/2+X15/4</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z15" s="4" t="n">
-        <f aca="false">ROUND(Y15*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y15*10/$AA$2,0)</f>
+        <v>8</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE15" s="0" t="s">
         <v>18</v>
@@ -2744,31 +2715,31 @@
       <c r="AG15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AH15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="AI15" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>18</v>
@@ -2783,25 +2754,25 @@
         <v>18</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>18</v>
@@ -2811,11 +2782,11 @@
       </c>
       <c r="U16" s="3" t="n">
         <f aca="false">COUNTIF(E16:T16,"C")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="3" t="n">
         <f aca="false">COUNTIF(E16:T16,"P")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W16" s="3" t="n">
         <f aca="false">COUNTIF(E16:T16,"M")</f>
@@ -2827,11 +2798,11 @@
       </c>
       <c r="Y16" s="3" t="n">
         <f aca="false">U16+V16+W16/2+X16/4</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z16" s="4" t="n">
-        <f aca="false">ROUND(Y16*10/$AA$1,0)</f>
-        <v>6</v>
+        <f aca="false">ROUND(Y16*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB16" s="0" t="s">
         <v>18</v>
@@ -2845,34 +2816,40 @@
       <c r="AG16" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AH16" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>18</v>
@@ -2881,25 +2858,25 @@
         <v>18</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>18</v>
@@ -2913,7 +2890,7 @@
       </c>
       <c r="V17" s="3" t="n">
         <f aca="false">COUNTIF(E17:T17,"P")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W17" s="3" t="n">
         <f aca="false">COUNTIF(E17:T17,"M")</f>
@@ -2925,17 +2902,14 @@
       </c>
       <c r="Y17" s="3" t="n">
         <f aca="false">U17+V17+W17/2+X17/4</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z17" s="4" t="n">
-        <f aca="false">ROUND(Y17*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y17*10/$AA$2,0)</f>
+        <v>6</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="5" t="n">
-        <v>0.548611111111111</v>
+        <v>18</v>
       </c>
       <c r="AD17" s="0" t="s">
         <v>18</v>
@@ -2947,22 +2921,28 @@
         <v>18</v>
       </c>
       <c r="AI17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK17" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E18" s="0" t="s">
         <v>18</v>
       </c>
@@ -2970,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>18</v>
@@ -2982,28 +2962,28 @@
         <v>18</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U18" s="3" t="n">
         <f aca="false">COUNTIF(E18:T18,"C")</f>
@@ -3011,7 +2991,7 @@
       </c>
       <c r="V18" s="3" t="n">
         <f aca="false">COUNTIF(E18:T18,"P")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W18" s="3" t="n">
         <f aca="false">COUNTIF(E18:T18,"M")</f>
@@ -3023,17 +3003,20 @@
       </c>
       <c r="Y18" s="3" t="n">
         <f aca="false">U18+V18+W18/2+X18/4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="4" t="n">
-        <f aca="false">ROUND(Y18*10/$AA$1,0)</f>
-        <v>7</v>
+        <f aca="false">ROUND(Y18*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>0.548611111111111</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE18" s="0" t="s">
         <v>18</v>
@@ -3044,23 +3027,23 @@
       <c r="AI18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AJ18" s="0" t="s">
-        <v>29</v>
+      <c r="AK18" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" s="0" t="s">
         <v>18</v>
       </c>
@@ -3068,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>18</v>
@@ -3101,7 +3084,7 @@
         <v>18</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U19" s="3" t="n">
         <f aca="false">COUNTIF(E19:T19,"C")</f>
@@ -3109,7 +3092,7 @@
       </c>
       <c r="V19" s="3" t="n">
         <f aca="false">COUNTIF(E19:T19,"P")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W19" s="3" t="n">
         <f aca="false">COUNTIF(E19:T19,"M")</f>
@@ -3121,14 +3104,14 @@
       </c>
       <c r="Y19" s="3" t="n">
         <f aca="false">U19+V19+W19/2+X19/4</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="4" t="n">
-        <f aca="false">ROUND(Y19*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y19*10/$AA$2,0)</f>
+        <v>7</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD19" s="0" t="s">
         <v>17</v>
@@ -3143,22 +3126,25 @@
         <v>18</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E20" s="0" t="s">
         <v>18</v>
       </c>
@@ -3166,7 +3152,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>18</v>
@@ -3178,10 +3164,10 @@
         <v>18</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>18</v>
@@ -3199,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U20" s="3" t="n">
         <f aca="false">COUNTIF(E20:T20,"C")</f>
@@ -3207,7 +3193,7 @@
       </c>
       <c r="V20" s="3" t="n">
         <f aca="false">COUNTIF(E20:T20,"P")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W20" s="3" t="n">
         <f aca="false">COUNTIF(E20:T20,"M")</f>
@@ -3219,17 +3205,17 @@
       </c>
       <c r="Y20" s="3" t="n">
         <f aca="false">U20+V20+W20/2+X20/4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z20" s="4" t="n">
-        <f aca="false">ROUND(Y20*10/$AA$1,0)</f>
-        <v>7</v>
+        <f aca="false">ROUND(Y20*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB20" s="0" t="s">
         <v>18</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" s="0" t="s">
         <v>18</v>
@@ -3241,22 +3227,25 @@
         <v>18</v>
       </c>
       <c r="AJ20" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E21" s="0" t="s">
         <v>18</v>
       </c>
@@ -3264,13 +3253,10 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>0.545833333333333</v>
+        <v>18</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>18</v>
@@ -3282,7 +3268,7 @@
         <v>18</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>18</v>
@@ -3300,7 +3286,7 @@
         <v>18</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U21" s="3" t="n">
         <f aca="false">COUNTIF(E21:T21,"C")</f>
@@ -3308,29 +3294,26 @@
       </c>
       <c r="V21" s="3" t="n">
         <f aca="false">COUNTIF(E21:T21,"P")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W21" s="3" t="n">
         <f aca="false">COUNTIF(E21:T21,"M")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="n">
         <f aca="false">COUNTIF(E21:T21,"M")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3" t="n">
         <f aca="false">U21+V21+W21/2+X21/4</f>
-        <v>12.75</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="4" t="n">
-        <f aca="false">ROUND(Y21*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y21*10/$AA$2,0)</f>
+        <v>7</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC21" s="5" t="n">
-        <v>0.548611111111111</v>
+        <v>18</v>
       </c>
       <c r="AD21" s="0" t="s">
         <v>18</v>
@@ -3342,22 +3325,28 @@
         <v>18</v>
       </c>
       <c r="AI21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK21" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E22" s="0" t="s">
         <v>18</v>
       </c>
@@ -3365,10 +3354,13 @@
         <v>18</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.545833333333333</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>18</v>
@@ -3377,10 +3369,10 @@
         <v>18</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>18</v>
@@ -3392,7 +3384,7 @@
         <v>18</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>18</v>
@@ -3406,26 +3398,29 @@
       </c>
       <c r="V22" s="3" t="n">
         <f aca="false">COUNTIF(E22:T22,"P")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W22" s="3" t="n">
         <f aca="false">COUNTIF(E22:T22,"M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="3" t="n">
         <f aca="false">COUNTIF(E22:T22,"M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="3" t="n">
         <f aca="false">U22+V22+W22/2+X22/4</f>
-        <v>11</v>
+        <v>12.75</v>
       </c>
       <c r="Z22" s="4" t="n">
-        <f aca="false">ROUND(Y22*10/$AA$1,0)</f>
-        <v>8</v>
+        <f aca="false">ROUND(Y22*10/$AA$2,0)</f>
+        <v>9</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>0.548611111111111</v>
       </c>
       <c r="AD22" s="0" t="s">
         <v>18</v>
@@ -3437,25 +3432,25 @@
         <v>18</v>
       </c>
       <c r="AI22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ22" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="AK22" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E23" s="0" t="s">
         <v>18</v>
       </c>
@@ -3466,7 +3461,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>18</v>
@@ -3484,10 +3479,10 @@
         <v>18</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R23" s="0" t="s">
         <v>18</v>
@@ -3504,7 +3499,7 @@
       </c>
       <c r="V23" s="3" t="n">
         <f aca="false">COUNTIF(E23:T23,"P")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W23" s="3" t="n">
         <f aca="false">COUNTIF(E23:T23,"M")</f>
@@ -3516,12 +3511,12 @@
       </c>
       <c r="Y23" s="3" t="n">
         <f aca="false">U23+V23+W23/2+X23/4</f>
+        <v>11</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <f aca="false">ROUND(Y23*10/$AA$2,0)</f>
         <v>8</v>
       </c>
-      <c r="Z23" s="4" t="n">
-        <f aca="false">ROUND(Y23*10/$AA$1,0)</f>
-        <v>6</v>
-      </c>
       <c r="AB23" s="0" t="s">
         <v>18</v>
       </c>
@@ -3529,34 +3524,34 @@
         <v>18</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="5" t="n">
-        <v>0.541666666666667</v>
+        <v>18</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AI23" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ23" s="0" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="AK23" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E24" s="0" t="s">
         <v>18</v>
       </c>
@@ -3564,10 +3559,10 @@
         <v>18</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>18</v>
@@ -3576,7 +3571,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>17</v>
@@ -3585,10 +3580,10 @@
         <v>18</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R24" s="0" t="s">
         <v>18</v>
@@ -3605,7 +3600,7 @@
       </c>
       <c r="V24" s="3" t="n">
         <f aca="false">COUNTIF(E24:T24,"P")</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="W24" s="3" t="n">
         <f aca="false">COUNTIF(E24:T24,"M")</f>
@@ -3617,11 +3612,11 @@
       </c>
       <c r="Y24" s="3" t="n">
         <f aca="false">U24+V24+W24/2+X24/4</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <f aca="false">ROUND(Y24*10/$AA$1,0)</f>
-        <v>9</v>
+        <f aca="false">ROUND(Y24*10/$AA$2,0)</f>
+        <v>6</v>
       </c>
       <c r="AB24" s="0" t="s">
         <v>18</v>
@@ -3630,10 +3625,13 @@
         <v>18</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>0.541666666666667</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>18</v>
@@ -3641,151 +3639,215 @@
       <c r="AJ24" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="AK24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL24" s="5" t="n">
+        <v>0.552083333333333</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <f aca="false">COUNTIF(E25:T25,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <f aca="false">COUNTIF(E25:T25,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <f aca="false">COUNTIF(E25:T25,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <f aca="false">COUNTIF(E25:T25,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3" t="n">
+        <f aca="false">U25+V25+W25/2+X25/4</f>
+        <v>13</v>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <f aca="false">ROUND(Y25*10/$AA$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK25" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E24,"p")</f>
+      <c r="D26" s="1"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="4"/>
+      <c r="AE26" s="0" t="n">
+        <f aca="false">COUNTIF(AE3:AE25,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <f aca="false">COUNTIF(AG3:AG25,"P")</f>
+        <v>19</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <f aca="false">COUNTIF(AI3:AI25,"P")</f>
         <v>21</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F24,"p")</f>
-        <v>21</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">COUNTIF(G2:G24,"p")</f>
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <f aca="false">COUNTIF(H2:H24,"p")</f>
-        <v>20</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <f aca="false">COUNTIF(J2:J24,"p")</f>
-        <v>21</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">COUNTIF(K2:K24,"p")</f>
-        <v>20</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L24,"p")</f>
-        <v>10</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <f aca="false">COUNTIF(M2:M24,"p")</f>
-        <v>16</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <f aca="false">COUNTIF(N2:N24,"p")</f>
-        <v>18</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <f aca="false">COUNTIF(P2:P24,"p")</f>
-        <v>20</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <f aca="false">COUNTIF(Q2:Q24,"p")</f>
-        <v>20</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <f aca="false">COUNTIF(R2:R24,"p")</f>
-        <v>12</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <f aca="false">COUNTIF(S2:S24,"p")</f>
-        <v>22</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <f aca="false">COUNTIF(T2:T24,"p")</f>
-        <v>20</v>
-      </c>
-      <c r="AB25" s="0" t="n">
-        <f aca="false">COUNTIF(AB2:AB24,"P")</f>
-        <v>18</v>
-      </c>
-      <c r="AD25" s="0" t="n">
-        <f aca="false">COUNTIF(AD2:AD24,"P")</f>
+      <c r="AK26" s="0" t="n">
+        <f aca="false">COUNTIF(AK3:AK25,"P")</f>
         <v>19</v>
-      </c>
-      <c r="AE25" s="0" t="n">
-        <f aca="false">COUNTIF(AE2:AE24,"P")</f>
-        <v>17</v>
-      </c>
-      <c r="AG25" s="0" t="n">
-        <f aca="false">COUNTIF(AG2:AG24,"P")</f>
-        <v>19</v>
-      </c>
-      <c r="AI25" s="0" t="n">
-        <f aca="false">COUNTIF(AI2:AI24,"P")</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false">COUNTIF(H2:H24,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">COUNTIF(J2:J24,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="AE26" s="0" t="n">
-        <f aca="false">COUNTIF(AE2:AE24,"m")</f>
-        <v>4</v>
-      </c>
-      <c r="AG26" s="0" t="n">
-        <f aca="false">COUNTIF(AG2:AG24,"m")</f>
-        <v>3</v>
-      </c>
-      <c r="AI26" s="0" t="n">
-        <f aca="false">COUNTIF(AI2:AI24,"m")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>97</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">COUNTIF(H3:H25,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">COUNTIF(J3:J25,"A")</f>
+        <v>2</v>
       </c>
       <c r="AE27" s="0" t="n">
-        <f aca="false">COUNTIF(AE2:AE24,"T")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AE3:AE25,"m")</f>
+        <v>4</v>
       </c>
       <c r="AG27" s="0" t="n">
-        <f aca="false">COUNTIF(AG2:AG24,"T")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AG3:AG25,"m")</f>
+        <v>3</v>
       </c>
       <c r="AI27" s="0" t="n">
-        <f aca="false">COUNTIF(AI2:AI24,"T")</f>
+        <f aca="false">COUNTIF(AI3:AI25,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="0" t="n">
+        <f aca="false">COUNTIF(AK3:AK25,"m")</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="AE28" s="0" t="n">
-        <f aca="false">SUM(AE25:AE27)</f>
+        <f aca="false">COUNTIF(AE3:AE25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <f aca="false">COUNTIF(AG3:AG25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <f aca="false">COUNTIF(AI3:AI25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="0" t="n">
+        <f aca="false">COUNTIF(AK3:AK25,"T")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <f aca="false">SUM(AE25:AE28)</f>
         <v>21</v>
       </c>
-      <c r="AG28" s="0" t="n">
-        <f aca="false">SUM(AG25:AG27)</f>
+      <c r="AG29" s="0" t="n">
+        <f aca="false">SUM(AG25:AG28)</f>
         <v>22</v>
       </c>
-      <c r="AI28" s="0" t="n">
-        <f aca="false">SUM(AI25:AI27)</f>
+      <c r="AI29" s="0" t="n">
+        <f aca="false">SUM(AI25:AI28)</f>
         <v>21</v>
+      </c>
+      <c r="AK29" s="0" t="n">
+        <f aca="false">SUM(AK25:AK28)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3810,13 +3872,13 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="3" style="0" width="9.39"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="12" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="12" style="0" width="9.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,40 +3889,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="O1" s="2" t="n">
         <v>45856</v>
@@ -4018,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -4066,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -4117,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -4168,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -4219,7 +4281,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -4267,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -4315,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -4366,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -4414,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -4465,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -4513,7 +4575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -4564,7 +4626,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -4612,7 +4674,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -4660,7 +4722,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -4711,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -4759,7 +4821,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7</v>
@@ -4810,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -4858,7 +4920,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10</v>
@@ -4909,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -4957,7 +5019,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10</v>
@@ -5008,12 +5070,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K24">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N24">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5038,7 +5100,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -5051,22 +5113,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,10 +5142,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -5103,10 +5165,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -5126,10 +5188,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5143,16 +5205,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5166,16 +5228,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -5189,16 +5251,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5212,16 +5274,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5235,16 +5297,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -5258,16 +5320,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -5281,7 +5343,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5295,16 +5357,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5318,16 +5380,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -5341,16 +5403,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -5364,16 +5426,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5387,16 +5449,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -5410,16 +5472,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -5433,16 +5495,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5456,16 +5518,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>146</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -5479,16 +5541,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5507,13 +5569,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5521,13 +5583,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -5538,16 +5600,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5561,16 +5623,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -5584,16 +5646,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5607,16 +5669,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5647,7 +5709,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -5660,13 +5722,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,10 +5742,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5700,10 +5762,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -5720,10 +5782,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5734,16 +5796,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -5754,16 +5816,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5774,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -5794,16 +5856,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5814,16 +5876,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5834,16 +5896,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5854,16 +5916,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5874,16 +5936,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5894,16 +5956,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5914,16 +5976,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5934,16 +5996,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5954,16 +6016,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5974,16 +6036,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5994,16 +6056,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -6014,16 +6076,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6034,16 +6096,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6054,16 +6116,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6074,16 +6136,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6094,16 +6156,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -6114,16 +6176,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -6151,7 +6213,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6165,22 +6227,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,10 +6256,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6217,10 +6279,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -6240,10 +6302,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -6257,16 +6319,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6280,16 +6342,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -6303,16 +6365,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -6326,16 +6388,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6349,16 +6411,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6372,16 +6434,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6395,7 +6457,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -6409,16 +6471,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -6432,16 +6494,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -6455,16 +6517,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -6483,13 +6545,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6497,13 +6559,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -6514,16 +6576,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -6537,16 +6599,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -6560,16 +6622,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6583,16 +6645,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -6606,16 +6668,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6629,16 +6691,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6652,16 +6714,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -6675,16 +6737,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -6698,16 +6760,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6721,16 +6783,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -6741,7 +6803,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6766,7 +6828,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6780,22 +6842,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6809,10 +6871,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6832,10 +6894,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -6857,10 +6919,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -6877,10 +6939,10 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6894,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -6908,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -6922,7 +6984,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -6936,7 +6998,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -6950,16 +7012,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6973,16 +7035,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -6996,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -7010,16 +7072,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -7033,7 +7095,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7047,16 +7109,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -7070,7 +7132,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -7084,7 +7146,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -7098,7 +7160,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -7112,7 +7174,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -7126,16 +7188,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -7149,7 +7211,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -7163,7 +7225,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -7177,7 +7239,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7191,16 +7253,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -7214,16 +7276,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -7254,7 +7316,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -7266,22 +7328,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,10 +7351,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -7314,10 +7376,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -7328,10 +7390,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -7342,10 +7404,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7353,13 +7415,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8</v>
@@ -7378,13 +7440,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -7392,13 +7454,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -7406,13 +7468,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -7420,13 +7482,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -7434,13 +7496,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -7448,13 +7510,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -7462,13 +7524,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3</v>
@@ -7476,13 +7538,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -7501,13 +7563,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -7515,13 +7577,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -7540,13 +7602,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
@@ -7554,13 +7616,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
@@ -7579,13 +7641,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -7593,13 +7655,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -7607,13 +7669,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>7</v>
@@ -7624,13 +7686,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>8</v>
@@ -7641,13 +7703,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>6</v>
@@ -7678,7 +7740,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -7701,7 +7763,7 @@
         <v>45751</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,7 +7819,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(C5:E5)</f>
@@ -7769,7 +7831,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">SUM(C6:E6)</f>
@@ -7781,7 +7843,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -7796,7 +7858,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -7811,7 +7873,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -7826,7 +7888,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -7844,7 +7906,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -7859,7 +7921,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -7874,7 +7936,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -7889,7 +7951,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -7904,7 +7966,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -7919,7 +7981,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(C16:E16)</f>
@@ -7931,7 +7993,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(C17:E17)</f>
@@ -7943,7 +8005,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -7961,7 +8023,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">SUM(C19:E19)</f>
@@ -7973,7 +8035,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -7991,7 +8053,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -8009,7 +8071,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -8027,7 +8089,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -8042,7 +8104,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(C24:E24)</f>
@@ -8071,7 +8133,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.6"/>
@@ -8087,10 +8149,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,7 +8169,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9.25</v>
@@ -8127,7 +8189,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -8147,7 +8209,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -8158,16 +8220,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9.5</v>
@@ -8178,16 +8240,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8.75</v>
@@ -8198,16 +8260,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9.75</v>
@@ -8218,16 +8280,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9.75</v>
@@ -8238,16 +8300,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -8258,16 +8320,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.75</v>
@@ -8278,16 +8340,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4.5</v>
@@ -8298,16 +8360,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8.75</v>
@@ -8318,16 +8380,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -8338,16 +8400,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -8358,16 +8420,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -8378,16 +8440,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -8398,16 +8460,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8.75</v>
@@ -8418,16 +8480,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8.75</v>
@@ -8438,16 +8500,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9.5</v>
@@ -8458,16 +8520,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.75</v>
@@ -8478,16 +8540,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8.25</v>
@@ -8498,16 +8560,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.75</v>
@@ -8518,16 +8580,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4.25</v>
@@ -8538,16 +8600,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>

--- a/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
+++ b/inasistencias-5b-Tec-Dig/alumnos-5b-Tec-Dig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="327">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -99,6 +99,9 @@
     <t xml:space="preserve">Robot 1</t>
   </si>
   <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melody Berenice</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t xml:space="preserve">Robot 9</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabrizio Daniel</t>
   </si>
   <si>
@@ -123,6 +129,12 @@
     <t xml:space="preserve">Robot 8</t>
   </si>
   <si>
+    <t xml:space="preserve">puede ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emiliano Yoel</t>
   </si>
   <si>
@@ -132,9 +144,6 @@
     <t xml:space="preserve">lidiamax861@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">T</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">Robot 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sabe</t>
   </si>
   <si>
     <t xml:space="preserve">Tobías Baltazar</t>
@@ -1152,22 +1164,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1266,22 +1263,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AL29"/>
+  <dimension ref="A2:AW29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL32" activeCellId="0" sqref="AL32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV31" activeCellId="0" sqref="AV31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.98828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="32.67"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="5" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="5" style="0" width="8.78"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="10.52"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="16" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="16" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="35" min="30" style="0" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="44" min="37" style="0" width="8.96"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,6 +1395,39 @@
       <c r="AK2" s="2" t="n">
         <v>45910</v>
       </c>
+      <c r="AL2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="AP2" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>45938</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1494,6 +1526,27 @@
       <c r="AK3" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AM3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1598,19 +1651,43 @@
       <c r="AK4" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AM4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>18</v>
@@ -1694,9 +1771,33 @@
         <v>18</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1705,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>18</v>
@@ -1798,10 +1899,37 @@
         <v>18</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK6" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>0.534722222222222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,13 +1937,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>18</v>
@@ -1902,24 +2030,49 @@
         <v>18</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL7" s="5" t="n">
         <v>0.552083333333333</v>
       </c>
+      <c r="AM7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="AR7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>18</v>
@@ -2005,19 +2158,40 @@
       <c r="AK8" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AM8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV8" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>18</v>
@@ -2104,9 +2278,33 @@
         <v>18</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AK9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2115,13 +2313,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>18</v>
@@ -2148,10 +2346,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>18</v>
@@ -2208,9 +2406,33 @@
         <v>18</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AK10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2219,13 +2441,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>18</v>
@@ -2294,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AC11" s="5" t="n">
         <v>0.548611111111111</v>
@@ -2315,24 +2537,54 @@
         <v>17</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL11" s="5" t="n">
         <v>0.552083333333333</v>
       </c>
+      <c r="AM11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN11" s="5" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ11" s="5" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="AR11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW11" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>18</v>
@@ -2416,9 +2668,33 @@
         <v>18</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV12" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2427,13 +2703,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>18</v>
@@ -2522,19 +2798,52 @@
       <c r="AK13" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AM13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN13" s="5" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ13" s="5" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="AR13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT13" s="5" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="AU13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW13" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>18</v>
@@ -2618,9 +2927,30 @@
         <v>18</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AK14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV14" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2629,13 +2959,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>18</v>
@@ -2719,9 +3049,30 @@
         <v>18</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV15" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2730,13 +3081,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>18</v>
@@ -2763,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>18</v>
@@ -2823,9 +3174,33 @@
         <v>18</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AK16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV16" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2834,13 +3209,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>17</v>
@@ -2924,9 +3299,33 @@
         <v>18</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV17" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2935,13 +3334,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>18</v>
@@ -3010,7 +3409,7 @@
         <v>9</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AC18" s="5" t="n">
         <v>0.548611111111111</v>
@@ -3030,19 +3429,43 @@
       <c r="AK18" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="AM18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>18</v>
@@ -3126,9 +3549,30 @@
         <v>18</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV19" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3137,13 +3581,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>18</v>
@@ -3227,9 +3671,30 @@
         <v>18</v>
       </c>
       <c r="AJ20" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AK20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV20" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3238,13 +3703,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>18</v>
@@ -3328,10 +3793,34 @@
         <v>18</v>
       </c>
       <c r="AJ21" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK21" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW21" s="5" t="n">
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,13 +3828,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>18</v>
@@ -3417,7 +3906,7 @@
         <v>9</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AC22" s="5" t="n">
         <v>0.548611111111111</v>
@@ -3436,6 +3925,30 @@
       </c>
       <c r="AK22" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW22" s="5" t="n">
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,13 +3956,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>18</v>
@@ -3533,9 +4046,33 @@
         <v>17</v>
       </c>
       <c r="AJ23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN23" s="5" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV23" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3544,13 +4081,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>18</v>
@@ -3640,10 +4177,34 @@
         <v>22</v>
       </c>
       <c r="AK24" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL24" s="5" t="n">
         <v>0.552083333333333</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ24" s="5" t="n">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="AR24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV24" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,13 +4212,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>18</v>
@@ -3744,6 +4305,27 @@
         <v>22</v>
       </c>
       <c r="AK25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV25" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3775,13 +4357,41 @@
         <f aca="false">COUNTIF(AK3:AK25,"P")</f>
         <v>19</v>
       </c>
+      <c r="AM26" s="0" t="n">
+        <f aca="false">COUNTIF(AM3:AM25,"P")</f>
+        <v>18</v>
+      </c>
+      <c r="AO26" s="0" t="n">
+        <f aca="false">COUNTIF(AO3:AO25,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="AP26" s="0" t="n">
+        <f aca="false">COUNTIF(AP3:AP25,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="AR26" s="0" t="n">
+        <f aca="false">COUNTIF(AR3:AR25,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="AS26" s="0" t="n">
+        <f aca="false">COUNTIF(AS3:AS25,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="AU26" s="0" t="n">
+        <f aca="false">COUNTIF(AU3:AU25,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="AV26" s="0" t="n">
+        <f aca="false">COUNTIF(AV3:AV25,"P")</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">COUNTIF(H3:H25,"A")</f>
@@ -3807,6 +4417,34 @@
         <f aca="false">COUNTIF(AK3:AK25,"m")</f>
         <v>0</v>
       </c>
+      <c r="AM27" s="0" t="n">
+        <f aca="false">COUNTIF(AM3:AM25,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="0" t="n">
+        <f aca="false">COUNTIF(AO3:AO25,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="0" t="n">
+        <f aca="false">COUNTIF(AP3:AP25,"m")</f>
+        <v>1</v>
+      </c>
+      <c r="AR27" s="0" t="n">
+        <f aca="false">COUNTIF(AR3:AR25,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="0" t="n">
+        <f aca="false">COUNTIF(AS3:AS25,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="0" t="n">
+        <f aca="false">COUNTIF(AU3:AU25,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="0" t="n">
+        <f aca="false">COUNTIF(AV3:AV25,"m")</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
@@ -3828,10 +4466,38 @@
         <f aca="false">COUNTIF(AK3:AK25,"T")</f>
         <v>3</v>
       </c>
+      <c r="AM28" s="0" t="n">
+        <f aca="false">COUNTIF(AM3:AM25,"T")</f>
+        <v>3</v>
+      </c>
+      <c r="AO28" s="0" t="n">
+        <f aca="false">COUNTIF(AO3:AO25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="0" t="n">
+        <f aca="false">COUNTIF(AP3:AP25,"T")</f>
+        <v>3</v>
+      </c>
+      <c r="AR28" s="0" t="n">
+        <f aca="false">COUNTIF(AR3:AR25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="0" t="n">
+        <f aca="false">COUNTIF(AS3:AS25,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="AU28" s="0" t="n">
+        <f aca="false">COUNTIF(AU3:AU25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="0" t="n">
+        <f aca="false">COUNTIF(AV3:AV25,"T")</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE29" s="0" t="n">
         <f aca="false">SUM(AE25:AE28)</f>
@@ -3848,6 +4514,34 @@
       <c r="AK29" s="0" t="n">
         <f aca="false">SUM(AK25:AK28)</f>
         <v>22</v>
+      </c>
+      <c r="AM29" s="0" t="n">
+        <f aca="false">SUM(AM25:AM28)</f>
+        <v>21</v>
+      </c>
+      <c r="AO29" s="0" t="n">
+        <f aca="false">SUM(AO25:AO28)</f>
+        <v>13</v>
+      </c>
+      <c r="AP29" s="0" t="n">
+        <f aca="false">SUM(AP25:AP28)</f>
+        <v>21</v>
+      </c>
+      <c r="AR29" s="0" t="n">
+        <f aca="false">SUM(AR25:AR28)</f>
+        <v>23</v>
+      </c>
+      <c r="AS29" s="0" t="n">
+        <f aca="false">SUM(AS25:AS28)</f>
+        <v>21</v>
+      </c>
+      <c r="AU29" s="0" t="n">
+        <f aca="false">SUM(AU25:AU28)</f>
+        <v>21</v>
+      </c>
+      <c r="AV29" s="0" t="n">
+        <f aca="false">SUM(AV25:AV28)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +4566,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -3889,40 +4583,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O1" s="2" t="n">
         <v>45856</v>
@@ -4032,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -4080,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -4128,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -4179,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -4230,7 +4924,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -4281,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -4329,7 +5023,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -4377,7 +5071,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -4428,7 +5122,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -4476,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -4527,7 +5221,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -4575,7 +5269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -4626,7 +5320,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -4674,7 +5368,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -4722,7 +5416,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -4773,7 +5467,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9</v>
@@ -4821,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7</v>
@@ -4872,7 +5566,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -4920,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10</v>
@@ -4971,7 +5665,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -5019,7 +5713,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10</v>
@@ -5070,12 +5764,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K24">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N24">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5100,7 +5794,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.9"/>
@@ -5113,22 +5807,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,10 +5836,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -5165,10 +5859,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -5182,16 +5876,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5205,16 +5899,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5228,16 +5922,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -5251,16 +5945,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5274,16 +5968,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5297,16 +5991,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -5320,16 +6014,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -5343,7 +6037,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5357,16 +6051,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5380,16 +6074,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -5403,16 +6097,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -5426,16 +6120,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5449,16 +6143,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -5472,16 +6166,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -5495,16 +6189,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5518,16 +6212,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -5541,16 +6235,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5569,13 +6263,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5583,13 +6277,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -5600,16 +6294,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5623,16 +6317,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -5646,16 +6340,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5669,16 +6363,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5709,7 +6403,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.25"/>
@@ -5722,13 +6416,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,10 +6436,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5762,10 +6456,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -5776,16 +6470,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5796,16 +6490,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -5816,16 +6510,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5836,16 +6530,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -5856,16 +6550,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -5876,16 +6570,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5896,16 +6590,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5916,16 +6610,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5936,16 +6630,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5956,16 +6650,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5976,16 +6670,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5996,16 +6690,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6016,16 +6710,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -6036,16 +6730,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -6056,16 +6750,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -6076,16 +6770,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6096,16 +6790,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -6116,16 +6810,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6136,16 +6830,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6156,16 +6850,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -6176,16 +6870,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -6213,7 +6907,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6227,22 +6921,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,10 +6950,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6279,10 +6973,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -6296,16 +6990,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -6319,16 +7013,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6342,16 +7036,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -6365,16 +7059,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -6388,16 +7082,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6411,16 +7105,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6434,16 +7128,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6457,7 +7151,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -6471,16 +7165,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -6494,16 +7188,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -6517,16 +7211,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -6545,13 +7239,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -6559,13 +7253,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -6576,16 +7270,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -6599,16 +7293,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -6622,16 +7316,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6645,16 +7339,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -6668,16 +7362,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6691,16 +7385,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6714,16 +7408,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -6737,16 +7431,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -6760,16 +7454,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6783,16 +7477,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -6803,7 +7497,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +7522,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -6842,22 +7536,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,10 +7565,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6894,10 +7588,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -6919,10 +7613,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -6933,16 +7627,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6956,7 +7650,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -6970,7 +7664,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -6984,7 +7678,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -6998,7 +7692,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -7012,16 +7706,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -7035,16 +7729,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -7058,7 +7752,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -7072,16 +7766,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -7095,7 +7789,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7109,16 +7803,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -7132,7 +7826,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -7146,7 +7840,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -7160,7 +7854,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -7174,7 +7868,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -7188,16 +7882,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -7211,7 +7905,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -7225,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -7239,7 +7933,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7253,16 +7947,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -7276,16 +7970,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>6</v>
@@ -7316,7 +8010,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -7328,22 +8022,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,10 +8045,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -7376,10 +8070,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -7390,10 +8084,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -7404,10 +8098,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7415,13 +8109,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8</v>
@@ -7440,13 +8134,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -7454,13 +8148,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -7468,13 +8162,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -7482,13 +8176,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -7496,13 +8190,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -7510,13 +8204,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -7524,13 +8218,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3</v>
@@ -7538,13 +8232,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -7563,13 +8257,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -7577,13 +8271,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -7602,13 +8296,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
@@ -7616,13 +8310,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
@@ -7641,13 +8335,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -7655,13 +8349,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -7669,13 +8363,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>7</v>
@@ -7686,13 +8380,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>8</v>
@@ -7703,13 +8397,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>6</v>
@@ -7740,7 +8434,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -7763,7 +8457,7 @@
         <v>45751</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -7819,7 +8513,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(C5:E5)</f>
@@ -7831,7 +8525,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">SUM(C6:E6)</f>
@@ -7843,7 +8537,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -7858,7 +8552,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -7873,7 +8567,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -7888,7 +8582,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -7906,7 +8600,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -7921,7 +8615,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -7936,7 +8630,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -7951,7 +8645,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -7966,7 +8660,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -7981,7 +8675,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(C16:E16)</f>
@@ -7993,7 +8687,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(C17:E17)</f>
@@ -8005,7 +8699,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -8023,7 +8717,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">SUM(C19:E19)</f>
@@ -8035,7 +8729,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -8053,7 +8747,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -8071,7 +8765,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -8089,7 +8783,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -8104,7 +8798,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(C24:E24)</f>
@@ -8133,7 +8827,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.6"/>
@@ -8149,10 +8843,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,7 +8863,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9.25</v>
@@ -8189,7 +8883,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -8200,16 +8894,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -8220,16 +8914,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9.5</v>
@@ -8240,16 +8934,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8.75</v>
@@ -8260,16 +8954,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9.75</v>
@@ -8280,16 +8974,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9.75</v>
@@ -8300,16 +8994,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -8320,16 +9014,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.75</v>
@@ -8340,16 +9034,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4.5</v>
@@ -8360,16 +9054,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8.75</v>
@@ -8380,16 +9074,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -8400,16 +9094,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -8420,16 +9114,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -8440,16 +9134,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -8460,16 +9154,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8.75</v>
@@ -8480,16 +9174,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8.75</v>
@@ -8500,16 +9194,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9.5</v>
@@ -8520,16 +9214,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.75</v>
@@ -8540,16 +9234,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8.25</v>
@@ -8560,16 +9254,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.75</v>
@@ -8580,16 +9274,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4.25</v>
@@ -8600,16 +9294,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
